--- a/home/static/excel/base.xlsx
+++ b/home/static/excel/base.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
@@ -895,10 +895,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,12 +917,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1537,7 +1537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1560,14 +1560,14 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="43" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -1609,22 +1609,22 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="34" t="s">
         <v>44</v>
       </c>
@@ -1645,7 +1645,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -1668,7 +1668,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="26" t="s">
         <v>42</v>
       </c>
@@ -1686,7 +1686,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="39" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -1710,7 +1710,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="26" t="s">
         <v>42</v>
       </c>
@@ -1759,24 +1759,24 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="15" t="s">
         <v>5</v>
       </c>
@@ -1982,25 +1982,25 @@
       <c r="L26" s="13"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39" t="s">
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
       <c r="L27" s="13"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="39"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="15" t="s">
         <v>5</v>
       </c>
@@ -2263,24 +2263,24 @@
       <c r="L40" s="14"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="44"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="39"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="15" t="s">
         <v>17</v>
       </c>
@@ -2467,11 +2467,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="B41:B42"/>
@@ -2482,6 +2477,11 @@
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
@@ -2493,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -2504,7 +2504,7 @@
     <col min="4" max="4" width="38.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="18.33203125" style="8" customWidth="1"/>
+    <col min="7" max="11" width="18.5" style="8" customWidth="1"/>
     <col min="12" max="13" width="11" style="19" customWidth="1"/>
     <col min="14" max="15" width="11" style="8" customWidth="1"/>
     <col min="16" max="16" width="17.1640625" style="8" customWidth="1"/>
@@ -2514,19 +2514,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
       <c r="L1" s="46" t="s">
         <v>52</v>
       </c>
@@ -2546,17 +2546,17 @@
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="45" t="s">
         <v>53</v>
       </c>
@@ -6578,7 +6578,7 @@
   <dimension ref="A1:AE236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K2"/>
+      <selection activeCell="H3" sqref="H1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -6609,19 +6609,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
       <c r="L1" s="48" t="s">
         <v>60</v>
       </c>
@@ -6645,42 +6645,42 @@
       <c r="AD1" s="48"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="49" t="s">
         <v>50</v>
       </c>
       <c r="M2" s="50"/>
       <c r="N2" s="51"/>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37" t="s">
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37" t="s">
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40" t="s">
         <v>15</v>
       </c>
       <c r="AE2" s="5"/>
@@ -6773,7 +6773,7 @@
       <c r="AC3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="37"/>
+      <c r="AD3" s="40"/>
     </row>
     <row r="4" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>

--- a/home/static/excel/base.xlsx
+++ b/home/static/excel/base.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20260"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t>신규</t>
   </si>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계(신청-취소)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>성별</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,10 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계(가입-탈퇴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>누적(가입-탈퇴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,6 +278,18 @@
   </si>
   <si>
     <t>누적(신청-취소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계(가입-탈퇴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계(신청-취소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +389,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,12 +399,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -477,6 +475,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -787,7 +873,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -837,20 +923,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -858,30 +935,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -890,21 +973,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,17 +987,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -938,6 +1015,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1537,7 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1560,28 +1652,28 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>71</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -1593,15 +1685,15 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1609,47 +1701,47 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="34" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="34" t="s">
+      <c r="F8" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="35" t="s">
-        <v>49</v>
+      <c r="I8" s="28" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>41</v>
+      <c r="B9" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>38</v>
@@ -1668,8 +1760,8 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="22" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="7"/>
@@ -1686,23 +1778,23 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1710,18 +1802,18 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20">
         <f>D12-E12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1759,24 +1851,24 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41" t="s">
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="15" t="s">
         <v>5</v>
       </c>
@@ -1982,25 +2074,25 @@
       <c r="L26" s="13"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
       <c r="L27" s="13"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="41"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="15" t="s">
         <v>5</v>
       </c>
@@ -2263,24 +2355,24 @@
       <c r="L40" s="14"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="44"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="38"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="41"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="15" t="s">
         <v>17</v>
       </c>
@@ -2493,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -2505,7 +2597,7 @@
     <col min="5" max="5" width="18.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="18.5" style="8" customWidth="1"/>
-    <col min="12" max="13" width="11" style="19" customWidth="1"/>
+    <col min="12" max="13" width="11" style="17" customWidth="1"/>
     <col min="14" max="15" width="11" style="8" customWidth="1"/>
     <col min="16" max="16" width="17.1640625" style="8" customWidth="1"/>
     <col min="17" max="17" width="6.6640625" customWidth="1"/>
@@ -2513,109 +2605,109 @@
     <col min="27" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="46" t="s">
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+    </row>
+    <row r="2" spans="1:26" s="24" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-    </row>
-    <row r="2" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="45" t="s">
+      <c r="M2" s="50"/>
+      <c r="N2" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46" t="s">
+      <c r="O2" s="48"/>
+      <c r="P2" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47" t="s">
+    </row>
+    <row r="3" spans="1:26" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="46"/>
+      <c r="P3" s="52"/>
     </row>
     <row r="4" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -2629,8 +2721,8 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -2647,8 +2739,8 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
@@ -2665,8 +2757,8 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -2683,8 +2775,8 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -2701,8 +2793,8 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -2719,8 +2811,8 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
@@ -2737,8 +2829,8 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -2755,8 +2847,8 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -2773,8 +2865,8 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -2791,8 +2883,8 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -2809,8 +2901,8 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -2827,8 +2919,8 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -2845,8 +2937,8 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -2863,8 +2955,8 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -2881,8 +2973,8 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -2899,8 +2991,8 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -2917,8 +3009,8 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -2935,8 +3027,8 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
@@ -2953,8 +3045,8 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
@@ -2971,8 +3063,8 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
@@ -2989,8 +3081,8 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
@@ -3007,8 +3099,8 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
@@ -3025,8 +3117,8 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
@@ -3043,8 +3135,8 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
@@ -3061,8 +3153,8 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -3079,8 +3171,8 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
@@ -3097,8 +3189,8 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
@@ -3115,8 +3207,8 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
@@ -3133,8 +3225,8 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
@@ -3151,8 +3243,8 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
@@ -3169,8 +3261,8 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
@@ -3187,8 +3279,8 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
@@ -3205,8 +3297,8 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
@@ -3223,8 +3315,8 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
@@ -3241,8 +3333,8 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
@@ -3259,8 +3351,8 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
@@ -3277,8 +3369,8 @@
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
@@ -3295,8 +3387,8 @@
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
@@ -3313,8 +3405,8 @@
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
@@ -3403,8 +3495,8 @@
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
@@ -3421,8 +3513,8 @@
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
@@ -3439,8 +3531,8 @@
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
@@ -3529,8 +3621,8 @@
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
@@ -3547,8 +3639,8 @@
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
@@ -3565,8 +3657,8 @@
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
@@ -3583,8 +3675,8 @@
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
@@ -3853,8 +3945,8 @@
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
       <c r="P83" s="8"/>
@@ -3871,8 +3963,8 @@
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
       <c r="P84" s="8"/>
@@ -3913,8 +4005,8 @@
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
@@ -3931,8 +4023,8 @@
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
       <c r="P88" s="8"/>
@@ -3949,8 +4041,8 @@
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
@@ -3967,8 +4059,8 @@
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
@@ -4069,8 +4161,8 @@
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
-      <c r="L98" s="19"/>
-      <c r="M98" s="19"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
       <c r="P98" s="8"/>
@@ -4087,8 +4179,8 @@
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
-      <c r="L99" s="19"/>
-      <c r="M99" s="19"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
       <c r="P99" s="8"/>
@@ -4105,8 +4197,8 @@
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
-      <c r="L100" s="19"/>
-      <c r="M100" s="19"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
       <c r="P100" s="8"/>
@@ -4123,8 +4215,8 @@
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
-      <c r="L101" s="19"/>
-      <c r="M101" s="19"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
       <c r="P101" s="8"/>
@@ -4141,8 +4233,8 @@
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
-      <c r="L102" s="19"/>
-      <c r="M102" s="19"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
       <c r="P102" s="8"/>
@@ -4159,8 +4251,8 @@
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
-      <c r="L103" s="19"/>
-      <c r="M103" s="19"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
       <c r="N103" s="8"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
@@ -4177,8 +4269,8 @@
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
-      <c r="L104" s="19"/>
-      <c r="M104" s="19"/>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
@@ -4195,8 +4287,8 @@
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
-      <c r="L105" s="19"/>
-      <c r="M105" s="19"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
@@ -4213,8 +4305,8 @@
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
-      <c r="L106" s="19"/>
-      <c r="M106" s="19"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
@@ -4231,8 +4323,8 @@
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
-      <c r="L107" s="19"/>
-      <c r="M107" s="19"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
@@ -4249,8 +4341,8 @@
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
-      <c r="L108" s="19"/>
-      <c r="M108" s="19"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
@@ -4267,8 +4359,8 @@
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
-      <c r="L109" s="19"/>
-      <c r="M109" s="19"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
@@ -4285,8 +4377,8 @@
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
-      <c r="L110" s="19"/>
-      <c r="M110" s="19"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
@@ -4303,8 +4395,8 @@
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
-      <c r="L111" s="19"/>
-      <c r="M111" s="19"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
       <c r="N111" s="8"/>
       <c r="O111" s="8"/>
       <c r="P111" s="8"/>
@@ -4321,8 +4413,8 @@
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
-      <c r="L112" s="19"/>
-      <c r="M112" s="19"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
@@ -4339,8 +4431,8 @@
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
-      <c r="L113" s="19"/>
-      <c r="M113" s="19"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
       <c r="N113" s="8"/>
       <c r="O113" s="8"/>
       <c r="P113" s="8"/>
@@ -4357,8 +4449,8 @@
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
-      <c r="L114" s="19"/>
-      <c r="M114" s="19"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
       <c r="N114" s="8"/>
       <c r="O114" s="8"/>
       <c r="P114" s="8"/>
@@ -4375,8 +4467,8 @@
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
-      <c r="L115" s="19"/>
-      <c r="M115" s="19"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
       <c r="P115" s="8"/>
@@ -4393,8 +4485,8 @@
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
-      <c r="L116" s="19"/>
-      <c r="M116" s="19"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
       <c r="P116" s="8"/>
@@ -4411,8 +4503,8 @@
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
-      <c r="L117" s="19"/>
-      <c r="M117" s="19"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
       <c r="P117" s="8"/>
@@ -4429,8 +4521,8 @@
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
-      <c r="L118" s="19"/>
-      <c r="M118" s="19"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
       <c r="P118" s="8"/>
@@ -4447,8 +4539,8 @@
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
-      <c r="L119" s="19"/>
-      <c r="M119" s="19"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
       <c r="P119" s="8"/>
@@ -4465,8 +4557,8 @@
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
-      <c r="L120" s="19"/>
-      <c r="M120" s="19"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
       <c r="P120" s="8"/>
@@ -4483,8 +4575,8 @@
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
-      <c r="L121" s="19"/>
-      <c r="M121" s="19"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
       <c r="P121" s="8"/>
@@ -4501,8 +4593,8 @@
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
-      <c r="L122" s="19"/>
-      <c r="M122" s="19"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
       <c r="P122" s="8"/>
@@ -4519,8 +4611,8 @@
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
-      <c r="L123" s="19"/>
-      <c r="M123" s="19"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
       <c r="P123" s="8"/>
@@ -4537,8 +4629,8 @@
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
-      <c r="L124" s="19"/>
-      <c r="M124" s="19"/>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
       <c r="N124" s="8"/>
       <c r="O124" s="8"/>
       <c r="P124" s="8"/>
@@ -4555,8 +4647,8 @@
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
-      <c r="L125" s="19"/>
-      <c r="M125" s="19"/>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
       <c r="N125" s="8"/>
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
@@ -4573,8 +4665,8 @@
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
-      <c r="L126" s="19"/>
-      <c r="M126" s="19"/>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
       <c r="N126" s="8"/>
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
@@ -4591,8 +4683,8 @@
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
-      <c r="L127" s="19"/>
-      <c r="M127" s="19"/>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
       <c r="N127" s="8"/>
       <c r="O127" s="8"/>
       <c r="P127" s="8"/>
@@ -4609,8 +4701,8 @@
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
-      <c r="L128" s="19"/>
-      <c r="M128" s="19"/>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
       <c r="N128" s="8"/>
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
@@ -4627,8 +4719,8 @@
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
-      <c r="L129" s="19"/>
-      <c r="M129" s="19"/>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
       <c r="N129" s="8"/>
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
@@ -4645,8 +4737,8 @@
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
-      <c r="L130" s="19"/>
-      <c r="M130" s="19"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
       <c r="N130" s="8"/>
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
@@ -4663,8 +4755,8 @@
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
-      <c r="L131" s="19"/>
-      <c r="M131" s="19"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
       <c r="N131" s="8"/>
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
@@ -4681,8 +4773,8 @@
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
-      <c r="L132" s="19"/>
-      <c r="M132" s="19"/>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
       <c r="N132" s="8"/>
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
@@ -4699,8 +4791,8 @@
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
-      <c r="L133" s="19"/>
-      <c r="M133" s="19"/>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
       <c r="N133" s="8"/>
       <c r="O133" s="8"/>
       <c r="P133" s="8"/>
@@ -4717,8 +4809,8 @@
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
-      <c r="L134" s="19"/>
-      <c r="M134" s="19"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
       <c r="N134" s="8"/>
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
@@ -4735,8 +4827,8 @@
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
-      <c r="L135" s="19"/>
-      <c r="M135" s="19"/>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
       <c r="N135" s="8"/>
       <c r="O135" s="8"/>
       <c r="P135" s="8"/>
@@ -4753,8 +4845,8 @@
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
-      <c r="L136" s="19"/>
-      <c r="M136" s="19"/>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
       <c r="N136" s="8"/>
       <c r="O136" s="8"/>
       <c r="P136" s="8"/>
@@ -4771,8 +4863,8 @@
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
-      <c r="L137" s="19"/>
-      <c r="M137" s="19"/>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
       <c r="N137" s="8"/>
       <c r="O137" s="8"/>
       <c r="P137" s="8"/>
@@ -4789,8 +4881,8 @@
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
-      <c r="L138" s="19"/>
-      <c r="M138" s="19"/>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
       <c r="N138" s="8"/>
       <c r="O138" s="8"/>
       <c r="P138" s="8"/>
@@ -4807,8 +4899,8 @@
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
-      <c r="L139" s="19"/>
-      <c r="M139" s="19"/>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
       <c r="N139" s="8"/>
       <c r="O139" s="8"/>
       <c r="P139" s="8"/>
@@ -4825,8 +4917,8 @@
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
-      <c r="L140" s="19"/>
-      <c r="M140" s="19"/>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
       <c r="N140" s="8"/>
       <c r="O140" s="8"/>
       <c r="P140" s="8"/>
@@ -4843,8 +4935,8 @@
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
-      <c r="L141" s="19"/>
-      <c r="M141" s="19"/>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
       <c r="N141" s="8"/>
       <c r="O141" s="8"/>
       <c r="P141" s="8"/>
@@ -4861,8 +4953,8 @@
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
-      <c r="L142" s="19"/>
-      <c r="M142" s="19"/>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
       <c r="N142" s="8"/>
       <c r="O142" s="8"/>
       <c r="P142" s="8"/>
@@ -4879,8 +4971,8 @@
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
-      <c r="L143" s="19"/>
-      <c r="M143" s="19"/>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
       <c r="N143" s="8"/>
       <c r="O143" s="8"/>
       <c r="P143" s="8"/>
@@ -4897,8 +4989,8 @@
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
-      <c r="L144" s="19"/>
-      <c r="M144" s="19"/>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
       <c r="N144" s="8"/>
       <c r="O144" s="8"/>
       <c r="P144" s="8"/>
@@ -4915,8 +5007,8 @@
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
-      <c r="L145" s="19"/>
-      <c r="M145" s="19"/>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
       <c r="N145" s="8"/>
       <c r="O145" s="8"/>
       <c r="P145" s="8"/>
@@ -4933,8 +5025,8 @@
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
-      <c r="L146" s="19"/>
-      <c r="M146" s="19"/>
+      <c r="L146" s="17"/>
+      <c r="M146" s="17"/>
       <c r="N146" s="8"/>
       <c r="O146" s="8"/>
       <c r="P146" s="8"/>
@@ -4951,8 +5043,8 @@
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
-      <c r="L147" s="19"/>
-      <c r="M147" s="19"/>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
       <c r="N147" s="8"/>
       <c r="O147" s="8"/>
       <c r="P147" s="8"/>
@@ -4969,8 +5061,8 @@
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
-      <c r="L148" s="19"/>
-      <c r="M148" s="19"/>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
       <c r="N148" s="8"/>
       <c r="O148" s="8"/>
       <c r="P148" s="8"/>
@@ -4987,8 +5079,8 @@
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
       <c r="K149" s="8"/>
-      <c r="L149" s="19"/>
-      <c r="M149" s="19"/>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
       <c r="N149" s="8"/>
       <c r="O149" s="8"/>
       <c r="P149" s="8"/>
@@ -5005,8 +5097,8 @@
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
-      <c r="L150" s="19"/>
-      <c r="M150" s="19"/>
+      <c r="L150" s="17"/>
+      <c r="M150" s="17"/>
       <c r="N150" s="8"/>
       <c r="O150" s="8"/>
       <c r="P150" s="8"/>
@@ -5023,8 +5115,8 @@
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
-      <c r="L151" s="19"/>
-      <c r="M151" s="19"/>
+      <c r="L151" s="17"/>
+      <c r="M151" s="17"/>
       <c r="N151" s="8"/>
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
@@ -5041,8 +5133,8 @@
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
       <c r="K152" s="8"/>
-      <c r="L152" s="19"/>
-      <c r="M152" s="19"/>
+      <c r="L152" s="17"/>
+      <c r="M152" s="17"/>
       <c r="N152" s="8"/>
       <c r="O152" s="8"/>
       <c r="P152" s="8"/>
@@ -5059,8 +5151,8 @@
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
       <c r="K153" s="8"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="19"/>
+      <c r="L153" s="17"/>
+      <c r="M153" s="17"/>
       <c r="N153" s="8"/>
       <c r="O153" s="8"/>
       <c r="P153" s="8"/>
@@ -5077,8 +5169,8 @@
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
       <c r="K154" s="8"/>
-      <c r="L154" s="19"/>
-      <c r="M154" s="19"/>
+      <c r="L154" s="17"/>
+      <c r="M154" s="17"/>
       <c r="N154" s="8"/>
       <c r="O154" s="8"/>
       <c r="P154" s="8"/>
@@ -5095,8 +5187,8 @@
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8"/>
-      <c r="L155" s="19"/>
-      <c r="M155" s="19"/>
+      <c r="L155" s="17"/>
+      <c r="M155" s="17"/>
       <c r="N155" s="8"/>
       <c r="O155" s="8"/>
       <c r="P155" s="8"/>
@@ -5113,8 +5205,8 @@
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
-      <c r="L156" s="19"/>
-      <c r="M156" s="19"/>
+      <c r="L156" s="17"/>
+      <c r="M156" s="17"/>
       <c r="N156" s="8"/>
       <c r="O156" s="8"/>
       <c r="P156" s="8"/>
@@ -5131,8 +5223,8 @@
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
-      <c r="L157" s="19"/>
-      <c r="M157" s="19"/>
+      <c r="L157" s="17"/>
+      <c r="M157" s="17"/>
       <c r="N157" s="8"/>
       <c r="O157" s="8"/>
       <c r="P157" s="8"/>
@@ -5149,8 +5241,8 @@
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
-      <c r="L158" s="19"/>
-      <c r="M158" s="19"/>
+      <c r="L158" s="17"/>
+      <c r="M158" s="17"/>
       <c r="N158" s="8"/>
       <c r="O158" s="8"/>
       <c r="P158" s="8"/>
@@ -5167,8 +5259,8 @@
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
-      <c r="L159" s="19"/>
-      <c r="M159" s="19"/>
+      <c r="L159" s="17"/>
+      <c r="M159" s="17"/>
       <c r="N159" s="8"/>
       <c r="O159" s="8"/>
       <c r="P159" s="8"/>
@@ -5185,8 +5277,8 @@
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
-      <c r="L160" s="19"/>
-      <c r="M160" s="19"/>
+      <c r="L160" s="17"/>
+      <c r="M160" s="17"/>
       <c r="N160" s="8"/>
       <c r="O160" s="8"/>
       <c r="P160" s="8"/>
@@ -5203,8 +5295,8 @@
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
-      <c r="L161" s="19"/>
-      <c r="M161" s="19"/>
+      <c r="L161" s="17"/>
+      <c r="M161" s="17"/>
       <c r="N161" s="8"/>
       <c r="O161" s="8"/>
       <c r="P161" s="8"/>
@@ -5221,8 +5313,8 @@
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
-      <c r="L162" s="19"/>
-      <c r="M162" s="19"/>
+      <c r="L162" s="17"/>
+      <c r="M162" s="17"/>
       <c r="N162" s="8"/>
       <c r="O162" s="8"/>
       <c r="P162" s="8"/>
@@ -5239,8 +5331,8 @@
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
-      <c r="L163" s="19"/>
-      <c r="M163" s="19"/>
+      <c r="L163" s="17"/>
+      <c r="M163" s="17"/>
       <c r="N163" s="8"/>
       <c r="O163" s="8"/>
       <c r="P163" s="8"/>
@@ -5257,8 +5349,8 @@
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
-      <c r="L164" s="19"/>
-      <c r="M164" s="19"/>
+      <c r="L164" s="17"/>
+      <c r="M164" s="17"/>
       <c r="N164" s="8"/>
       <c r="O164" s="8"/>
       <c r="P164" s="8"/>
@@ -5275,8 +5367,8 @@
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
-      <c r="L165" s="19"/>
-      <c r="M165" s="19"/>
+      <c r="L165" s="17"/>
+      <c r="M165" s="17"/>
       <c r="N165" s="8"/>
       <c r="O165" s="8"/>
       <c r="P165" s="8"/>
@@ -5293,8 +5385,8 @@
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
-      <c r="L166" s="19"/>
-      <c r="M166" s="19"/>
+      <c r="L166" s="17"/>
+      <c r="M166" s="17"/>
       <c r="N166" s="8"/>
       <c r="O166" s="8"/>
       <c r="P166" s="8"/>
@@ -5311,8 +5403,8 @@
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
-      <c r="L167" s="19"/>
-      <c r="M167" s="19"/>
+      <c r="L167" s="17"/>
+      <c r="M167" s="17"/>
       <c r="N167" s="8"/>
       <c r="O167" s="8"/>
       <c r="P167" s="8"/>
@@ -5329,8 +5421,8 @@
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
-      <c r="L168" s="19"/>
-      <c r="M168" s="19"/>
+      <c r="L168" s="17"/>
+      <c r="M168" s="17"/>
       <c r="N168" s="8"/>
       <c r="O168" s="8"/>
       <c r="P168" s="8"/>
@@ -5347,8 +5439,8 @@
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
-      <c r="L169" s="19"/>
-      <c r="M169" s="19"/>
+      <c r="L169" s="17"/>
+      <c r="M169" s="17"/>
       <c r="N169" s="8"/>
       <c r="O169" s="8"/>
       <c r="P169" s="8"/>
@@ -5365,8 +5457,8 @@
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
-      <c r="L170" s="19"/>
-      <c r="M170" s="19"/>
+      <c r="L170" s="17"/>
+      <c r="M170" s="17"/>
       <c r="N170" s="8"/>
       <c r="O170" s="8"/>
       <c r="P170" s="8"/>
@@ -5383,8 +5475,8 @@
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
       <c r="K171" s="8"/>
-      <c r="L171" s="19"/>
-      <c r="M171" s="19"/>
+      <c r="L171" s="17"/>
+      <c r="M171" s="17"/>
       <c r="N171" s="8"/>
       <c r="O171" s="8"/>
       <c r="P171" s="8"/>
@@ -5401,8 +5493,8 @@
       <c r="I172" s="8"/>
       <c r="J172" s="8"/>
       <c r="K172" s="8"/>
-      <c r="L172" s="19"/>
-      <c r="M172" s="19"/>
+      <c r="L172" s="17"/>
+      <c r="M172" s="17"/>
       <c r="N172" s="8"/>
       <c r="O172" s="8"/>
       <c r="P172" s="8"/>
@@ -5419,8 +5511,8 @@
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
       <c r="K173" s="8"/>
-      <c r="L173" s="19"/>
-      <c r="M173" s="19"/>
+      <c r="L173" s="17"/>
+      <c r="M173" s="17"/>
       <c r="N173" s="8"/>
       <c r="O173" s="8"/>
       <c r="P173" s="8"/>
@@ -5437,8 +5529,8 @@
       <c r="I174" s="8"/>
       <c r="J174" s="8"/>
       <c r="K174" s="8"/>
-      <c r="L174" s="19"/>
-      <c r="M174" s="19"/>
+      <c r="L174" s="17"/>
+      <c r="M174" s="17"/>
       <c r="N174" s="8"/>
       <c r="O174" s="8"/>
       <c r="P174" s="8"/>
@@ -5455,8 +5547,8 @@
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
       <c r="K175" s="8"/>
-      <c r="L175" s="19"/>
-      <c r="M175" s="19"/>
+      <c r="L175" s="17"/>
+      <c r="M175" s="17"/>
       <c r="N175" s="8"/>
       <c r="O175" s="8"/>
       <c r="P175" s="8"/>
@@ -5473,8 +5565,8 @@
       <c r="I176" s="8"/>
       <c r="J176" s="8"/>
       <c r="K176" s="8"/>
-      <c r="L176" s="19"/>
-      <c r="M176" s="19"/>
+      <c r="L176" s="17"/>
+      <c r="M176" s="17"/>
       <c r="N176" s="8"/>
       <c r="O176" s="8"/>
       <c r="P176" s="8"/>
@@ -5491,8 +5583,8 @@
       <c r="I177" s="8"/>
       <c r="J177" s="8"/>
       <c r="K177" s="8"/>
-      <c r="L177" s="19"/>
-      <c r="M177" s="19"/>
+      <c r="L177" s="17"/>
+      <c r="M177" s="17"/>
       <c r="N177" s="8"/>
       <c r="O177" s="8"/>
       <c r="P177" s="8"/>
@@ -5509,8 +5601,8 @@
       <c r="I178" s="8"/>
       <c r="J178" s="8"/>
       <c r="K178" s="8"/>
-      <c r="L178" s="19"/>
-      <c r="M178" s="19"/>
+      <c r="L178" s="17"/>
+      <c r="M178" s="17"/>
       <c r="N178" s="8"/>
       <c r="O178" s="8"/>
       <c r="P178" s="8"/>
@@ -5527,8 +5619,8 @@
       <c r="I179" s="8"/>
       <c r="J179" s="8"/>
       <c r="K179" s="8"/>
-      <c r="L179" s="19"/>
-      <c r="M179" s="19"/>
+      <c r="L179" s="17"/>
+      <c r="M179" s="17"/>
       <c r="N179" s="8"/>
       <c r="O179" s="8"/>
       <c r="P179" s="8"/>
@@ -5545,8 +5637,8 @@
       <c r="I180" s="8"/>
       <c r="J180" s="8"/>
       <c r="K180" s="8"/>
-      <c r="L180" s="19"/>
-      <c r="M180" s="19"/>
+      <c r="L180" s="17"/>
+      <c r="M180" s="17"/>
       <c r="N180" s="8"/>
       <c r="O180" s="8"/>
       <c r="P180" s="8"/>
@@ -5563,8 +5655,8 @@
       <c r="I181" s="8"/>
       <c r="J181" s="8"/>
       <c r="K181" s="8"/>
-      <c r="L181" s="19"/>
-      <c r="M181" s="19"/>
+      <c r="L181" s="17"/>
+      <c r="M181" s="17"/>
       <c r="N181" s="8"/>
       <c r="O181" s="8"/>
       <c r="P181" s="8"/>
@@ -5581,8 +5673,8 @@
       <c r="I182" s="8"/>
       <c r="J182" s="8"/>
       <c r="K182" s="8"/>
-      <c r="L182" s="19"/>
-      <c r="M182" s="19"/>
+      <c r="L182" s="17"/>
+      <c r="M182" s="17"/>
       <c r="N182" s="8"/>
       <c r="O182" s="8"/>
       <c r="P182" s="8"/>
@@ -5599,8 +5691,8 @@
       <c r="I183" s="8"/>
       <c r="J183" s="8"/>
       <c r="K183" s="8"/>
-      <c r="L183" s="19"/>
-      <c r="M183" s="19"/>
+      <c r="L183" s="17"/>
+      <c r="M183" s="17"/>
       <c r="N183" s="8"/>
       <c r="O183" s="8"/>
       <c r="P183" s="8"/>
@@ -5617,8 +5709,8 @@
       <c r="I184" s="8"/>
       <c r="J184" s="8"/>
       <c r="K184" s="8"/>
-      <c r="L184" s="19"/>
-      <c r="M184" s="19"/>
+      <c r="L184" s="17"/>
+      <c r="M184" s="17"/>
       <c r="N184" s="8"/>
       <c r="O184" s="8"/>
       <c r="P184" s="8"/>
@@ -5635,8 +5727,8 @@
       <c r="I185" s="8"/>
       <c r="J185" s="8"/>
       <c r="K185" s="8"/>
-      <c r="L185" s="19"/>
-      <c r="M185" s="19"/>
+      <c r="L185" s="17"/>
+      <c r="M185" s="17"/>
       <c r="N185" s="8"/>
       <c r="O185" s="8"/>
       <c r="P185" s="8"/>
@@ -5653,8 +5745,8 @@
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
       <c r="K186" s="8"/>
-      <c r="L186" s="19"/>
-      <c r="M186" s="19"/>
+      <c r="L186" s="17"/>
+      <c r="M186" s="17"/>
       <c r="N186" s="8"/>
       <c r="O186" s="8"/>
       <c r="P186" s="8"/>
@@ -5671,8 +5763,8 @@
       <c r="I187" s="8"/>
       <c r="J187" s="8"/>
       <c r="K187" s="8"/>
-      <c r="L187" s="19"/>
-      <c r="M187" s="19"/>
+      <c r="L187" s="17"/>
+      <c r="M187" s="17"/>
       <c r="N187" s="8"/>
       <c r="O187" s="8"/>
       <c r="P187" s="8"/>
@@ -5689,8 +5781,8 @@
       <c r="I188" s="8"/>
       <c r="J188" s="8"/>
       <c r="K188" s="8"/>
-      <c r="L188" s="19"/>
-      <c r="M188" s="19"/>
+      <c r="L188" s="17"/>
+      <c r="M188" s="17"/>
       <c r="N188" s="8"/>
       <c r="O188" s="8"/>
       <c r="P188" s="8"/>
@@ -5707,8 +5799,8 @@
       <c r="I189" s="8"/>
       <c r="J189" s="8"/>
       <c r="K189" s="8"/>
-      <c r="L189" s="19"/>
-      <c r="M189" s="19"/>
+      <c r="L189" s="17"/>
+      <c r="M189" s="17"/>
       <c r="N189" s="8"/>
       <c r="O189" s="8"/>
       <c r="P189" s="8"/>
@@ -5725,8 +5817,8 @@
       <c r="I190" s="8"/>
       <c r="J190" s="8"/>
       <c r="K190" s="8"/>
-      <c r="L190" s="19"/>
-      <c r="M190" s="19"/>
+      <c r="L190" s="17"/>
+      <c r="M190" s="17"/>
       <c r="N190" s="8"/>
       <c r="O190" s="8"/>
       <c r="P190" s="8"/>
@@ -5743,8 +5835,8 @@
       <c r="I191" s="8"/>
       <c r="J191" s="8"/>
       <c r="K191" s="8"/>
-      <c r="L191" s="19"/>
-      <c r="M191" s="19"/>
+      <c r="L191" s="17"/>
+      <c r="M191" s="17"/>
       <c r="N191" s="8"/>
       <c r="O191" s="8"/>
       <c r="P191" s="8"/>
@@ -5761,8 +5853,8 @@
       <c r="I192" s="8"/>
       <c r="J192" s="8"/>
       <c r="K192" s="8"/>
-      <c r="L192" s="19"/>
-      <c r="M192" s="19"/>
+      <c r="L192" s="17"/>
+      <c r="M192" s="17"/>
       <c r="N192" s="8"/>
       <c r="O192" s="8"/>
       <c r="P192" s="8"/>
@@ -5779,8 +5871,8 @@
       <c r="I193" s="8"/>
       <c r="J193" s="8"/>
       <c r="K193" s="8"/>
-      <c r="L193" s="19"/>
-      <c r="M193" s="19"/>
+      <c r="L193" s="17"/>
+      <c r="M193" s="17"/>
       <c r="N193" s="8"/>
       <c r="O193" s="8"/>
       <c r="P193" s="8"/>
@@ -5797,8 +5889,8 @@
       <c r="I194" s="8"/>
       <c r="J194" s="8"/>
       <c r="K194" s="8"/>
-      <c r="L194" s="19"/>
-      <c r="M194" s="19"/>
+      <c r="L194" s="17"/>
+      <c r="M194" s="17"/>
       <c r="N194" s="8"/>
       <c r="O194" s="8"/>
       <c r="P194" s="8"/>
@@ -5815,8 +5907,8 @@
       <c r="I195" s="8"/>
       <c r="J195" s="8"/>
       <c r="K195" s="8"/>
-      <c r="L195" s="19"/>
-      <c r="M195" s="19"/>
+      <c r="L195" s="17"/>
+      <c r="M195" s="17"/>
       <c r="N195" s="8"/>
       <c r="O195" s="8"/>
       <c r="P195" s="8"/>
@@ -5833,8 +5925,8 @@
       <c r="I196" s="8"/>
       <c r="J196" s="8"/>
       <c r="K196" s="8"/>
-      <c r="L196" s="19"/>
-      <c r="M196" s="19"/>
+      <c r="L196" s="17"/>
+      <c r="M196" s="17"/>
       <c r="N196" s="8"/>
       <c r="O196" s="8"/>
       <c r="P196" s="8"/>
@@ -5851,8 +5943,8 @@
       <c r="I197" s="8"/>
       <c r="J197" s="8"/>
       <c r="K197" s="8"/>
-      <c r="L197" s="19"/>
-      <c r="M197" s="19"/>
+      <c r="L197" s="17"/>
+      <c r="M197" s="17"/>
       <c r="N197" s="8"/>
       <c r="O197" s="8"/>
       <c r="P197" s="8"/>
@@ -5869,8 +5961,8 @@
       <c r="I198" s="8"/>
       <c r="J198" s="8"/>
       <c r="K198" s="8"/>
-      <c r="L198" s="19"/>
-      <c r="M198" s="19"/>
+      <c r="L198" s="17"/>
+      <c r="M198" s="17"/>
       <c r="N198" s="8"/>
       <c r="O198" s="8"/>
       <c r="P198" s="8"/>
@@ -5887,8 +5979,8 @@
       <c r="I199" s="8"/>
       <c r="J199" s="8"/>
       <c r="K199" s="8"/>
-      <c r="L199" s="19"/>
-      <c r="M199" s="19"/>
+      <c r="L199" s="17"/>
+      <c r="M199" s="17"/>
       <c r="N199" s="8"/>
       <c r="O199" s="8"/>
       <c r="P199" s="8"/>
@@ -5905,8 +5997,8 @@
       <c r="I200" s="8"/>
       <c r="J200" s="8"/>
       <c r="K200" s="8"/>
-      <c r="L200" s="19"/>
-      <c r="M200" s="19"/>
+      <c r="L200" s="17"/>
+      <c r="M200" s="17"/>
       <c r="N200" s="8"/>
       <c r="O200" s="8"/>
       <c r="P200" s="8"/>
@@ -5923,8 +6015,8 @@
       <c r="I201" s="8"/>
       <c r="J201" s="8"/>
       <c r="K201" s="8"/>
-      <c r="L201" s="19"/>
-      <c r="M201" s="19"/>
+      <c r="L201" s="17"/>
+      <c r="M201" s="17"/>
       <c r="N201" s="8"/>
       <c r="O201" s="8"/>
       <c r="P201" s="8"/>
@@ -5941,8 +6033,8 @@
       <c r="I202" s="8"/>
       <c r="J202" s="8"/>
       <c r="K202" s="8"/>
-      <c r="L202" s="19"/>
-      <c r="M202" s="19"/>
+      <c r="L202" s="17"/>
+      <c r="M202" s="17"/>
       <c r="N202" s="8"/>
       <c r="O202" s="8"/>
       <c r="P202" s="8"/>
@@ -5959,8 +6051,8 @@
       <c r="I203" s="8"/>
       <c r="J203" s="8"/>
       <c r="K203" s="8"/>
-      <c r="L203" s="19"/>
-      <c r="M203" s="19"/>
+      <c r="L203" s="17"/>
+      <c r="M203" s="17"/>
       <c r="N203" s="8"/>
       <c r="O203" s="8"/>
       <c r="P203" s="8"/>
@@ -5977,8 +6069,8 @@
       <c r="I204" s="8"/>
       <c r="J204" s="8"/>
       <c r="K204" s="8"/>
-      <c r="L204" s="19"/>
-      <c r="M204" s="19"/>
+      <c r="L204" s="17"/>
+      <c r="M204" s="17"/>
       <c r="N204" s="8"/>
       <c r="O204" s="8"/>
       <c r="P204" s="8"/>
@@ -5995,8 +6087,8 @@
       <c r="I205" s="8"/>
       <c r="J205" s="8"/>
       <c r="K205" s="8"/>
-      <c r="L205" s="19"/>
-      <c r="M205" s="19"/>
+      <c r="L205" s="17"/>
+      <c r="M205" s="17"/>
       <c r="N205" s="8"/>
       <c r="O205" s="8"/>
       <c r="P205" s="8"/>
@@ -6013,8 +6105,8 @@
       <c r="I206" s="8"/>
       <c r="J206" s="8"/>
       <c r="K206" s="8"/>
-      <c r="L206" s="19"/>
-      <c r="M206" s="19"/>
+      <c r="L206" s="17"/>
+      <c r="M206" s="17"/>
       <c r="N206" s="8"/>
       <c r="O206" s="8"/>
       <c r="P206" s="8"/>
@@ -6031,8 +6123,8 @@
       <c r="I207" s="8"/>
       <c r="J207" s="8"/>
       <c r="K207" s="8"/>
-      <c r="L207" s="19"/>
-      <c r="M207" s="19"/>
+      <c r="L207" s="17"/>
+      <c r="M207" s="17"/>
       <c r="N207" s="8"/>
       <c r="O207" s="8"/>
       <c r="P207" s="8"/>
@@ -6049,8 +6141,8 @@
       <c r="I208" s="8"/>
       <c r="J208" s="8"/>
       <c r="K208" s="8"/>
-      <c r="L208" s="19"/>
-      <c r="M208" s="19"/>
+      <c r="L208" s="17"/>
+      <c r="M208" s="17"/>
       <c r="N208" s="8"/>
       <c r="O208" s="8"/>
       <c r="P208" s="8"/>
@@ -6067,8 +6159,8 @@
       <c r="I209" s="8"/>
       <c r="J209" s="8"/>
       <c r="K209" s="8"/>
-      <c r="L209" s="19"/>
-      <c r="M209" s="19"/>
+      <c r="L209" s="17"/>
+      <c r="M209" s="17"/>
       <c r="N209" s="8"/>
       <c r="O209" s="8"/>
       <c r="P209" s="8"/>
@@ -6085,8 +6177,8 @@
       <c r="I210" s="8"/>
       <c r="J210" s="8"/>
       <c r="K210" s="8"/>
-      <c r="L210" s="19"/>
-      <c r="M210" s="19"/>
+      <c r="L210" s="17"/>
+      <c r="M210" s="17"/>
       <c r="N210" s="8"/>
       <c r="O210" s="8"/>
       <c r="P210" s="8"/>
@@ -6103,8 +6195,8 @@
       <c r="I211" s="8"/>
       <c r="J211" s="8"/>
       <c r="K211" s="8"/>
-      <c r="L211" s="19"/>
-      <c r="M211" s="19"/>
+      <c r="L211" s="17"/>
+      <c r="M211" s="17"/>
       <c r="N211" s="8"/>
       <c r="O211" s="8"/>
       <c r="P211" s="8"/>
@@ -6121,8 +6213,8 @@
       <c r="I212" s="8"/>
       <c r="J212" s="8"/>
       <c r="K212" s="8"/>
-      <c r="L212" s="19"/>
-      <c r="M212" s="19"/>
+      <c r="L212" s="17"/>
+      <c r="M212" s="17"/>
       <c r="N212" s="8"/>
       <c r="O212" s="8"/>
       <c r="P212" s="8"/>
@@ -6139,8 +6231,8 @@
       <c r="I213" s="8"/>
       <c r="J213" s="8"/>
       <c r="K213" s="8"/>
-      <c r="L213" s="19"/>
-      <c r="M213" s="19"/>
+      <c r="L213" s="17"/>
+      <c r="M213" s="17"/>
       <c r="N213" s="8"/>
       <c r="O213" s="8"/>
       <c r="P213" s="8"/>
@@ -6157,8 +6249,8 @@
       <c r="I214" s="8"/>
       <c r="J214" s="8"/>
       <c r="K214" s="8"/>
-      <c r="L214" s="19"/>
-      <c r="M214" s="19"/>
+      <c r="L214" s="17"/>
+      <c r="M214" s="17"/>
       <c r="N214" s="8"/>
       <c r="O214" s="8"/>
       <c r="P214" s="8"/>
@@ -6175,8 +6267,8 @@
       <c r="I215" s="8"/>
       <c r="J215" s="8"/>
       <c r="K215" s="8"/>
-      <c r="L215" s="19"/>
-      <c r="M215" s="19"/>
+      <c r="L215" s="17"/>
+      <c r="M215" s="17"/>
       <c r="N215" s="8"/>
       <c r="O215" s="8"/>
       <c r="P215" s="8"/>
@@ -6193,8 +6285,8 @@
       <c r="I216" s="8"/>
       <c r="J216" s="8"/>
       <c r="K216" s="8"/>
-      <c r="L216" s="19"/>
-      <c r="M216" s="19"/>
+      <c r="L216" s="17"/>
+      <c r="M216" s="17"/>
       <c r="N216" s="8"/>
       <c r="O216" s="8"/>
       <c r="P216" s="8"/>
@@ -6211,8 +6303,8 @@
       <c r="I217" s="8"/>
       <c r="J217" s="8"/>
       <c r="K217" s="8"/>
-      <c r="L217" s="19"/>
-      <c r="M217" s="19"/>
+      <c r="L217" s="17"/>
+      <c r="M217" s="17"/>
       <c r="N217" s="8"/>
       <c r="O217" s="8"/>
       <c r="P217" s="8"/>
@@ -6229,8 +6321,8 @@
       <c r="I218" s="8"/>
       <c r="J218" s="8"/>
       <c r="K218" s="8"/>
-      <c r="L218" s="19"/>
-      <c r="M218" s="19"/>
+      <c r="L218" s="17"/>
+      <c r="M218" s="17"/>
       <c r="N218" s="8"/>
       <c r="O218" s="8"/>
       <c r="P218" s="8"/>
@@ -6247,8 +6339,8 @@
       <c r="I219" s="8"/>
       <c r="J219" s="8"/>
       <c r="K219" s="8"/>
-      <c r="L219" s="19"/>
-      <c r="M219" s="19"/>
+      <c r="L219" s="17"/>
+      <c r="M219" s="17"/>
       <c r="N219" s="8"/>
       <c r="O219" s="8"/>
       <c r="P219" s="8"/>
@@ -6265,8 +6357,8 @@
       <c r="I220" s="8"/>
       <c r="J220" s="8"/>
       <c r="K220" s="8"/>
-      <c r="L220" s="19"/>
-      <c r="M220" s="19"/>
+      <c r="L220" s="17"/>
+      <c r="M220" s="17"/>
       <c r="N220" s="8"/>
       <c r="O220" s="8"/>
       <c r="P220" s="8"/>
@@ -6283,8 +6375,8 @@
       <c r="I221" s="8"/>
       <c r="J221" s="8"/>
       <c r="K221" s="8"/>
-      <c r="L221" s="19"/>
-      <c r="M221" s="19"/>
+      <c r="L221" s="17"/>
+      <c r="M221" s="17"/>
       <c r="N221" s="8"/>
       <c r="O221" s="8"/>
       <c r="P221" s="8"/>
@@ -6301,8 +6393,8 @@
       <c r="I222" s="8"/>
       <c r="J222" s="8"/>
       <c r="K222" s="8"/>
-      <c r="L222" s="19"/>
-      <c r="M222" s="19"/>
+      <c r="L222" s="17"/>
+      <c r="M222" s="17"/>
       <c r="N222" s="8"/>
       <c r="O222" s="8"/>
       <c r="P222" s="8"/>
@@ -6319,8 +6411,8 @@
       <c r="I223" s="8"/>
       <c r="J223" s="8"/>
       <c r="K223" s="8"/>
-      <c r="L223" s="19"/>
-      <c r="M223" s="19"/>
+      <c r="L223" s="17"/>
+      <c r="M223" s="17"/>
       <c r="N223" s="8"/>
       <c r="O223" s="8"/>
       <c r="P223" s="8"/>
@@ -6337,8 +6429,8 @@
       <c r="I224" s="8"/>
       <c r="J224" s="8"/>
       <c r="K224" s="8"/>
-      <c r="L224" s="19"/>
-      <c r="M224" s="19"/>
+      <c r="L224" s="17"/>
+      <c r="M224" s="17"/>
       <c r="N224" s="8"/>
       <c r="O224" s="8"/>
       <c r="P224" s="8"/>
@@ -6355,8 +6447,8 @@
       <c r="I225" s="8"/>
       <c r="J225" s="8"/>
       <c r="K225" s="8"/>
-      <c r="L225" s="19"/>
-      <c r="M225" s="19"/>
+      <c r="L225" s="17"/>
+      <c r="M225" s="17"/>
       <c r="N225" s="8"/>
       <c r="O225" s="8"/>
       <c r="P225" s="8"/>
@@ -6373,8 +6465,8 @@
       <c r="I226" s="8"/>
       <c r="J226" s="8"/>
       <c r="K226" s="8"/>
-      <c r="L226" s="19"/>
-      <c r="M226" s="19"/>
+      <c r="L226" s="17"/>
+      <c r="M226" s="17"/>
       <c r="N226" s="8"/>
       <c r="O226" s="8"/>
       <c r="P226" s="8"/>
@@ -6391,8 +6483,8 @@
       <c r="I227" s="8"/>
       <c r="J227" s="8"/>
       <c r="K227" s="8"/>
-      <c r="L227" s="19"/>
-      <c r="M227" s="19"/>
+      <c r="L227" s="17"/>
+      <c r="M227" s="17"/>
       <c r="N227" s="8"/>
       <c r="O227" s="8"/>
       <c r="P227" s="8"/>
@@ -6409,8 +6501,8 @@
       <c r="I228" s="8"/>
       <c r="J228" s="8"/>
       <c r="K228" s="8"/>
-      <c r="L228" s="19"/>
-      <c r="M228" s="19"/>
+      <c r="L228" s="17"/>
+      <c r="M228" s="17"/>
       <c r="N228" s="8"/>
       <c r="O228" s="8"/>
       <c r="P228" s="8"/>
@@ -6427,8 +6519,8 @@
       <c r="I229" s="8"/>
       <c r="J229" s="8"/>
       <c r="K229" s="8"/>
-      <c r="L229" s="19"/>
-      <c r="M229" s="19"/>
+      <c r="L229" s="17"/>
+      <c r="M229" s="17"/>
       <c r="N229" s="8"/>
       <c r="O229" s="8"/>
       <c r="P229" s="8"/>
@@ -6445,8 +6537,8 @@
       <c r="I230" s="8"/>
       <c r="J230" s="8"/>
       <c r="K230" s="8"/>
-      <c r="L230" s="19"/>
-      <c r="M230" s="19"/>
+      <c r="L230" s="17"/>
+      <c r="M230" s="17"/>
       <c r="N230" s="8"/>
       <c r="O230" s="8"/>
       <c r="P230" s="8"/>
@@ -6463,8 +6555,8 @@
       <c r="I231" s="8"/>
       <c r="J231" s="8"/>
       <c r="K231" s="8"/>
-      <c r="L231" s="19"/>
-      <c r="M231" s="19"/>
+      <c r="L231" s="17"/>
+      <c r="M231" s="17"/>
       <c r="N231" s="8"/>
       <c r="O231" s="8"/>
       <c r="P231" s="8"/>
@@ -6481,8 +6573,8 @@
       <c r="I232" s="8"/>
       <c r="J232" s="8"/>
       <c r="K232" s="8"/>
-      <c r="L232" s="19"/>
-      <c r="M232" s="19"/>
+      <c r="L232" s="17"/>
+      <c r="M232" s="17"/>
       <c r="N232" s="8"/>
       <c r="O232" s="8"/>
       <c r="P232" s="8"/>
@@ -6499,8 +6591,8 @@
       <c r="I233" s="8"/>
       <c r="J233" s="8"/>
       <c r="K233" s="8"/>
-      <c r="L233" s="19"/>
-      <c r="M233" s="19"/>
+      <c r="L233" s="17"/>
+      <c r="M233" s="17"/>
       <c r="N233" s="8"/>
       <c r="O233" s="8"/>
       <c r="P233" s="8"/>
@@ -6517,8 +6609,8 @@
       <c r="I234" s="8"/>
       <c r="J234" s="8"/>
       <c r="K234" s="8"/>
-      <c r="L234" s="19"/>
-      <c r="M234" s="19"/>
+      <c r="L234" s="17"/>
+      <c r="M234" s="17"/>
       <c r="N234" s="8"/>
       <c r="O234" s="8"/>
       <c r="P234" s="8"/>
@@ -6535,8 +6627,8 @@
       <c r="I235" s="8"/>
       <c r="J235" s="8"/>
       <c r="K235" s="8"/>
-      <c r="L235" s="19"/>
-      <c r="M235" s="19"/>
+      <c r="L235" s="17"/>
+      <c r="M235" s="17"/>
       <c r="N235" s="8"/>
       <c r="O235" s="8"/>
       <c r="P235" s="8"/>
@@ -6553,8 +6645,8 @@
       <c r="I236" s="8"/>
       <c r="J236" s="8"/>
       <c r="K236" s="8"/>
-      <c r="L236" s="19"/>
-      <c r="M236" s="19"/>
+      <c r="L236" s="17"/>
+      <c r="M236" s="17"/>
       <c r="N236" s="8"/>
       <c r="O236" s="8"/>
       <c r="P236" s="8"/>
@@ -6578,7 +6670,7 @@
   <dimension ref="A1:AE236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H1:K1048576"/>
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -6609,78 +6701,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="48" t="s">
+      <c r="A1" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="40" t="s">
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40" t="s">
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34" t="s">
         <v>15</v>
       </c>
       <c r="AE2" s="5"/>
@@ -6689,11 +6781,11 @@
       <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="53" t="s">
         <v>65</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>64</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>28</v>
@@ -6701,79 +6793,79 @@
       <c r="E3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="J3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="25" t="s">
+      <c r="N3" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="V3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="W3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Y3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="Z3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AA3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AB3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AC3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="40"/>
+      <c r="AD3" s="34"/>
     </row>
     <row r="4" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>

--- a/home/static/excel/base.xlsx
+++ b/home/static/excel/base.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="85">
   <si>
     <t>&lt;요약&gt;</t>
   </si>
@@ -294,6 +294,14 @@
   </si>
   <si>
     <t>이수자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +409,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,31 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +895,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -953,21 +937,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -990,79 +959,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="295">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
@@ -1658,9 +1610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1685,36 +1639,36 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="48" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1733,7 +1687,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="20" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="2"/>
@@ -1742,184 +1696,184 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="40" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="27"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="28" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="27"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="27"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="27"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="23">
         <f>E9-E10</f>
         <v>0</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="23">
         <f>G9-G10</f>
         <v>0</v>
       </c>
-      <c r="H11" s="27"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="27"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="27"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="47"/>
+      <c r="C14" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="27"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="23">
         <f>D13-D14</f>
         <v>0</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="23">
         <f>E13-E14</f>
         <v>0</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="23">
         <f t="shared" ref="F15:G15" si="0">F13-F14</f>
         <v>0</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="27"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="27"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="45"/>
-      <c r="C17" s="31" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="41"/>
+      <c r="C17" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1929,52 +1883,54 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="44" t="s">
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="41"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="17" t="s">
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="41"/>
+      <c r="C21" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="17" t="s">
+      <c r="I21" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="40" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
@@ -1994,7 +1950,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
@@ -2002,21 +1958,21 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="14">
-        <f t="shared" ref="F23:F28" si="1">SUM(C23:E23)</f>
+        <f>SUM(C23:E23)</f>
         <v>0</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="14">
-        <f t="shared" ref="J23:J28" si="2">SUM(G23:I23)</f>
+        <f>SUM(G23:I23)</f>
         <v>0</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>27</v>
       </c>
@@ -2024,19 +1980,19 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(C24:E24)</f>
         <v>0</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(G24:I24)</f>
         <v>0</v>
       </c>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>28</v>
       </c>
@@ -2044,19 +2000,19 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(C25:E25)</f>
         <v>0</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(G25:I25)</f>
         <v>0</v>
       </c>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
@@ -2064,19 +2020,19 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(C26:E26)</f>
         <v>0</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(G26:I26)</f>
         <v>0</v>
       </c>
       <c r="L26" s="10"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
@@ -2084,426 +2040,472 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(C27:E27)</f>
         <v>0</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(G27:I27)</f>
         <v>0</v>
       </c>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
       <c r="B28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="14">
+        <f>SUM(C28:E28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="14">
+        <f>SUM(G28:I28)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="14">
-        <f>SUM(C22:C27)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="14">
-        <f t="shared" ref="D28:E28" si="3">SUM(D22:D27)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="14">
+      <c r="C29" s="14">
+        <f>SUM(C22:C28)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="14">
+        <f t="shared" ref="D29:J29" si="1">SUM(D22:D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="14">
-        <f>SUM(G22:G27)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="14">
-        <f t="shared" ref="H28:I28" si="4">SUM(H22:H27)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="10"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="F29" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="44" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="44" t="s">
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="41"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="45"/>
-      <c r="C32" s="17" t="s">
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="41"/>
+      <c r="C33" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D33" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E33" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F33" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="H33" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="I33" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="J33" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="17" t="s">
+      <c r="K33" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="10"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
+      <c r="M33" s="4"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="14">
-        <f>SUM(C33:E33)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="14">
-        <f>SUM(G33:I33)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="10"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="14">
-        <f t="shared" ref="F34:F41" si="5">SUM(C34:E34)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="14">
+        <f>SUM(C34:F34)</f>
+        <v>0</v>
+      </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="14">
-        <f t="shared" ref="J34:J41" si="6">SUM(G34:I34)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="10"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="14">
+        <f>SUM(H34:K34)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="13"/>
+      <c r="N34" s="10"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="14">
+        <f>SUM(C35:F35)</f>
+        <v>0</v>
+      </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="10"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="14">
+        <f>SUM(H35:K35)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="13"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="14">
+        <f>SUM(C36:F36)</f>
+        <v>0</v>
+      </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="10"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="14">
+        <f>SUM(H36:K36)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="14">
+        <f>SUM(C37:F37)</f>
+        <v>0</v>
+      </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="10"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="14">
+        <f>SUM(H37:K37)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="14">
+        <f>SUM(C38:F38)</f>
+        <v>0</v>
+      </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="10"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="14">
+        <f>SUM(H38:K38)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="14">
+        <f>SUM(C39:F39)</f>
+        <v>0</v>
+      </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="14">
+        <f>SUM(H39:K39)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="14">
+        <f>SUM(C40:F40)</f>
+        <v>0</v>
+      </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="14">
+        <f>SUM(H40:K40)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="14">
+        <f>SUM(C41:F41)</f>
+        <v>0</v>
+      </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="14">
+        <f>SUM(H41:K41)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="14">
+        <f>SUM(C42:F42)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="14">
+        <f>SUM(H42:K42)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="14">
-        <f>SUM(C33:C41)</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="14">
-        <f t="shared" ref="D42:F42" si="7">SUM(D33:D41)</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="14">
-        <f t="shared" ref="G42" si="8">SUM(G33:G41)</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="14">
-        <f t="shared" ref="H42" si="9">SUM(H33:H41)</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="14">
-        <f t="shared" ref="I42" si="10">SUM(I33:I41)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="14">
-        <f t="shared" ref="J42" si="11">SUM(J33:J41)</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="4"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
+      <c r="C43" s="14">
+        <f>SUM(C34:C42)</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="14">
+        <f t="shared" ref="D43" si="2">SUM(D34:D42)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="14">
+        <f>SUM(E34:E42)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="14">
+        <f t="shared" ref="F43:L43" si="3">SUM(F34:F42)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="12"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="44" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C46" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="41"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="45"/>
-      <c r="C46" s="17" t="s">
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="30"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="41"/>
+      <c r="C47" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D47" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E47" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F47" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G47" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H47" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I47" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J46" s="17" t="s">
+      <c r="J47" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="17" t="s">
+      <c r="K47" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="L46" s="17" t="s">
+      <c r="L47" s="40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="14">
-        <f>SUM(C47:K47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -2515,13 +2517,13 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="14">
-        <f t="shared" ref="L48:L52" si="12">SUM(C48:K48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+        <f>SUM(C48:K48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2533,13 +2535,13 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L49:L54" si="4">SUM(C49:K49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -2551,13 +2553,13 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -2569,13 +2571,13 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -2587,74 +2589,111 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
       <c r="B53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="14">
+        <f t="shared" ref="L53" si="5">SUM(C53:K53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="14">
-        <f>SUM(C47:C52)</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="14">
-        <f t="shared" ref="D53:L53" si="13">SUM(D47:D52)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="14">
-        <f t="shared" si="13"/>
+      <c r="C55" s="14">
+        <f>SUM(C48:C54)</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="14">
+        <f t="shared" ref="D55:L55" si="6">SUM(D48:D54)</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="14">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:L45"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="H32:L32"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:L46"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:G32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
@@ -2667,186 +2706,186 @@
   <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection sqref="A1:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11" style="27" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="35.5" style="27" customWidth="1"/>
-    <col min="5" max="6" width="12.83203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="27" customWidth="1"/>
-    <col min="8" max="10" width="17.1640625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="19.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="5.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" style="27" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.6640625" style="21" customWidth="1"/>
-    <col min="27" max="35" width="13.33203125" style="21" customWidth="1"/>
-    <col min="36" max="16384" width="11" style="20"/>
+    <col min="1" max="1" width="19.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="11" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="22" customWidth="1"/>
+    <col min="5" max="6" width="12.83203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="22" customWidth="1"/>
+    <col min="8" max="10" width="17.1640625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="19.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" style="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.6640625" style="16" customWidth="1"/>
+    <col min="27" max="35" width="13.33203125" style="16" customWidth="1"/>
+    <col min="36" max="16384" width="11" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:35" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="48" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="48" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="48" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="50" t="s">
+      <c r="X1" s="42"/>
+      <c r="Y1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-    </row>
-    <row r="2" spans="1:35" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="48" t="s">
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+    </row>
+    <row r="2" spans="1:35" s="17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="41"/>
-      <c r="T2" s="48" t="s">
+      <c r="S2" s="42"/>
+      <c r="T2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="41"/>
-      <c r="V2" s="34" t="s">
+      <c r="U2" s="42"/>
+      <c r="V2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="38"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="51"/>
-    </row>
-    <row r="3" spans="1:35" s="26" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="25"/>
+    </row>
+    <row r="3" spans="1:35" s="21" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="U3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="34" t="s">
+      <c r="V3" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="W3" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="Y3" s="19"/>
+      <c r="Y3" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2866,450 +2905,466 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO3"/>
+  <dimension ref="A1:BR3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11" style="27" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="35.5" style="27" customWidth="1"/>
-    <col min="5" max="6" width="12.83203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="27" customWidth="1"/>
-    <col min="8" max="10" width="17.1640625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="11" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="22" customWidth="1"/>
+    <col min="5" max="6" width="12.83203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="22" customWidth="1"/>
+    <col min="8" max="10" width="17.1640625" style="22" customWidth="1"/>
     <col min="11" max="12" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="5.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="5.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="5.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8" style="20" bestFit="1" customWidth="1"/>
-    <col min="48" max="50" width="5.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="53" max="56" width="5.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="5.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="5.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="5.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8" style="20" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="5.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="68" max="16384" width="11" style="5"/>
+    <col min="14" max="14" width="5.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="5.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8" style="15" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="5.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="56" max="59" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="5.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8" style="15" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="71" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="54" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="56" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="54" t="s">
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="47"/>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="47"/>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
-      <c r="BJ1" s="47"/>
-      <c r="BK1" s="47"/>
-      <c r="BL1" s="47"/>
-      <c r="BM1" s="47"/>
-      <c r="BN1" s="47"/>
-      <c r="BO1" s="41"/>
-    </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="55" t="s">
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="29"/>
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29"/>
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29"/>
+      <c r="BQ1" s="29"/>
+      <c r="BR1" s="30"/>
+    </row>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="54" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="54" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="54" t="s">
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="59" t="s">
+      <c r="AE2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="56" t="s">
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="56" t="s">
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="56" t="s">
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AW2" s="55" t="s">
+      <c r="AY2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="54" t="s">
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="47"/>
-      <c r="BE2" s="41"/>
-      <c r="BF2" s="54" t="s">
+      <c r="BD2" s="29"/>
+      <c r="BE2" s="29"/>
+      <c r="BF2" s="29"/>
+      <c r="BG2" s="29"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="BG2" s="47"/>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="47"/>
-      <c r="BK2" s="47"/>
-      <c r="BL2" s="47"/>
-      <c r="BM2" s="47"/>
-      <c r="BN2" s="41"/>
-      <c r="BO2" s="54" t="s">
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="29"/>
+      <c r="BL2" s="29"/>
+      <c r="BM2" s="29"/>
+      <c r="BN2" s="29"/>
+      <c r="BO2" s="29"/>
+      <c r="BP2" s="29"/>
+      <c r="BQ2" s="30"/>
+      <c r="BR2" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:67" ht="34" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:70" ht="34" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="P3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="Q3" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="W3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="X3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="Y3" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Z3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="AA3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AB3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AC3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="35" t="s">
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="35" t="s">
+      <c r="AF3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AF3" s="35" t="s">
+      <c r="AG3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AG3" s="35" t="s">
+      <c r="AH3" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="AH3" s="35" t="s">
+      <c r="AJ3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" s="35" t="s">
+      <c r="AK3" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="AJ3" s="35" t="s">
+      <c r="AL3" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="AK3" s="35" t="s">
+      <c r="AM3" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="AL3" s="35" t="s">
+      <c r="AN3" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="AM3" s="35" t="s">
+      <c r="AO3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AN3" s="35" t="s">
+      <c r="AP3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="AO3" s="35" t="s">
+      <c r="AQ3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AP3" s="35" t="s">
+      <c r="AR3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AQ3" s="35" t="s">
+      <c r="AS3" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="AR3" s="35" t="s">
+      <c r="AT3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AS3" s="35" t="s">
+      <c r="AU3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AT3" s="35" t="s">
+      <c r="AV3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AU3" s="35" t="s">
+      <c r="AW3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="16" t="s">
+      <c r="AX3" s="41"/>
+      <c r="AY3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AX3" s="16" t="s">
+      <c r="AZ3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AY3" s="16" t="s">
+      <c r="BA3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AZ3" s="16" t="s">
+      <c r="BB3" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC3" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="BA3" s="16" t="s">
+      <c r="BD3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="BB3" s="16" t="s">
+      <c r="BE3" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="BC3" s="16" t="s">
+      <c r="BF3" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="BD3" s="16" t="s">
+      <c r="BG3" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="BE3" s="16" t="s">
+      <c r="BH3" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="BF3" s="16" t="s">
+      <c r="BI3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="BG3" s="16" t="s">
+      <c r="BJ3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="BH3" s="16" t="s">
+      <c r="BK3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="BI3" s="16" t="s">
+      <c r="BL3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="BJ3" s="16" t="s">
+      <c r="BM3" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="BK3" s="16" t="s">
+      <c r="BN3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="BL3" s="16" t="s">
+      <c r="BO3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="BM3" s="16" t="s">
+      <c r="BP3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="BN3" s="16" t="s">
+      <c r="BQ3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="BO3" s="45"/>
+      <c r="BR3" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AW1:BO1"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BN2"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="AD1:AV1"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AL2"/>
-    <mergeCell ref="AM2:AU2"/>
-    <mergeCell ref="AV2:AV3"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:AB2"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="K1:AC1"/>
-    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="U2:AC2"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="K1:AD1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="AE1:AX1"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="AO2:AW2"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AY1:BR1"/>
+    <mergeCell ref="BC2:BH2"/>
+    <mergeCell ref="BI2:BQ2"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="AY2:BB2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/home/static/excel/base.xlsx
+++ b/home/static/excel/base.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20300"/>
+    <workbookView xWindow="-37880" yWindow="1080" windowWidth="37100" windowHeight="18680"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="83">
   <si>
     <t>&lt;요약&gt;</t>
   </si>
@@ -294,14 +294,6 @@
   </si>
   <si>
     <t>이수자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -963,56 +955,56 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1610,11 +1602,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1639,36 +1629,36 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="30"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="31" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1696,42 +1686,42 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="34" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="34" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="37" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="25" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -1745,8 +1735,8 @@
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -1760,8 +1750,8 @@
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="23" t="s">
@@ -1782,7 +1772,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="41"/>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -1796,10 +1786,10 @@
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="23"/>
@@ -1809,8 +1799,8 @@
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="23"/>
@@ -1821,7 +1811,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="41"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="23">
@@ -1843,10 +1833,10 @@
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D16" s="23"/>
@@ -1855,9 +1845,9 @@
       <c r="G16" s="23"/>
       <c r="H16" s="22"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="25" t="s">
         <v>64</v>
       </c>
       <c r="D17" s="23"/>
@@ -1866,14 +1856,14 @@
       <c r="G17" s="23"/>
       <c r="H17" s="22"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1883,54 +1873,54 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="25" t="s">
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="41"/>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="40" t="s">
+      <c r="J21" s="28" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
@@ -1938,19 +1928,19 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="14">
-        <f>SUM(C22:E22)</f>
+        <f t="shared" ref="F22:F27" si="1">SUM(C22:E22)</f>
         <v>0</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="14">
-        <f>SUM(G22:I22)</f>
+        <f t="shared" ref="J22:J27" si="2">SUM(G22:I22)</f>
         <v>0</v>
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
@@ -1958,21 +1948,21 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="14">
-        <f>SUM(C23:E23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="14">
-        <f>SUM(G23:I23)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>27</v>
       </c>
@@ -1980,19 +1970,19 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="14">
-        <f>SUM(C24:E24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="14">
-        <f>SUM(G24:I24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>28</v>
       </c>
@@ -2000,19 +1990,19 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="14">
-        <f>SUM(C25:E25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="14">
-        <f>SUM(G25:I25)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
@@ -2020,19 +2010,19 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="14">
-        <f>SUM(C26:E26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="14">
-        <f>SUM(G26:I26)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L26" s="10"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
@@ -2040,472 +2030,425 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="14">
-        <f>SUM(C27:E27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="14">
-        <f>SUM(G27:I27)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="1:14" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+    <row r="28" spans="2:12" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="C28" s="14">
+        <f>SUM(C22:C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="14">
+        <f>SUM(D22:D27)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
+        <f>SUM(E22:E27)</f>
+        <v>0</v>
+      </c>
       <c r="F28" s="14">
-        <f>SUM(C28:E28)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+        <f>SUM(F22:F27)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="14">
+        <f>SUM(G22:G27)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <f>SUM(H22:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="14">
+        <f>SUM(I22:I27)</f>
+        <v>0</v>
+      </c>
       <c r="J28" s="14">
-        <f>SUM(G28:I28)</f>
+        <f>SUM(J22:J27)</f>
         <v>0</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="10"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="14">
-        <f>SUM(C22:C28)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="14">
-        <f t="shared" ref="D29:J29" si="1">SUM(D22:D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="10"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="28" t="s">
+    <row r="31" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C31" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="25" t="s">
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="41"/>
-      <c r="C33" s="40" t="s">
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="41"/>
+      <c r="C32" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D32" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E32" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="40" t="s">
+      <c r="F32" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="40" t="s">
+      <c r="G32" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="40" t="s">
+      <c r="H32" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="40" t="s">
+      <c r="I32" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" s="40" t="s">
+      <c r="J32" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="14">
+        <f>SUM(C33:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="14">
+        <f>SUM(G33:I33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="14">
-        <f>SUM(C34:F34)</f>
-        <v>0</v>
-      </c>
+      <c r="F34" s="14">
+        <f>SUM(C34:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="14">
-        <f>SUM(H34:K34)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="13"/>
-      <c r="N34" s="10"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J34" s="14">
+        <f>SUM(G34:I34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="14">
-        <f>SUM(C35:F35)</f>
-        <v>0</v>
-      </c>
+      <c r="F35" s="14">
+        <f>SUM(C35:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="14">
-        <f>SUM(H35:K35)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="13"/>
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J35" s="14">
+        <f>SUM(G35:I35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="14">
-        <f>SUM(C36:F36)</f>
-        <v>0</v>
-      </c>
+      <c r="F36" s="14">
+        <f>SUM(C36:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="14">
-        <f>SUM(H36:K36)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="10"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J36" s="14">
+        <f>SUM(G36:I36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="14">
-        <f>SUM(C37:F37)</f>
-        <v>0</v>
-      </c>
+      <c r="F37" s="14">
+        <f>SUM(C37:E37)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="14">
-        <f>SUM(H37:K37)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="10"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J37" s="14">
+        <f>SUM(G37:I37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="14">
-        <f>SUM(C38:F38)</f>
-        <v>0</v>
-      </c>
+      <c r="F38" s="14">
+        <f>SUM(C38:E38)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="14">
-        <f>SUM(H38:K38)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="10"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J38" s="14">
+        <f>SUM(G38:I38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="14">
-        <f>SUM(C39:F39)</f>
-        <v>0</v>
-      </c>
+      <c r="F39" s="14">
+        <f>SUM(C39:E39)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="14">
-        <f>SUM(H39:K39)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="10"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J39" s="14">
+        <f>SUM(G39:I39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="14">
-        <f>SUM(C40:F40)</f>
-        <v>0</v>
-      </c>
+      <c r="F40" s="14">
+        <f>SUM(C40:E40)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="14">
-        <f>SUM(H40:K40)</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J40" s="14">
+        <f>SUM(G40:I40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="14">
-        <f>SUM(C41:F41)</f>
-        <v>0</v>
-      </c>
+      <c r="F41" s="14">
+        <f>SUM(C41:E41)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="14">
-        <f>SUM(H41:K41)</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J41" s="14">
+        <f>SUM(G41:I41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="C42" s="14">
+        <f>SUM(C33:C41)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="14">
+        <f t="shared" ref="D42" si="3">SUM(D33:D41)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="14">
+        <f>SUM(E33:E41)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="14">
+        <f t="shared" ref="F42:J42" si="4">SUM(F33:F41)</f>
+        <v>0</v>
+      </c>
       <c r="G42" s="14">
-        <f>SUM(C42:F42)</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="14">
-        <f>SUM(H42:K42)</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="14">
-        <f>SUM(C34:C42)</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="14">
-        <f t="shared" ref="D43" si="2">SUM(D34:D42)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="14">
-        <f>SUM(E34:E42)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="14">
-        <f t="shared" ref="F43:L43" si="3">SUM(F34:F42)</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="12"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="28" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="12"/>
+    </row>
+    <row r="45" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C45" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="30"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="41"/>
-      <c r="C47" s="40" t="s">
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="48"/>
+    </row>
+    <row r="46" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="41"/>
+      <c r="C46" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D46" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E46" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="40" t="s">
+      <c r="F46" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G47" s="40" t="s">
+      <c r="G46" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H47" s="40" t="s">
+      <c r="H46" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="I47" s="40" t="s">
+      <c r="I46" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="J47" s="40" t="s">
+      <c r="J46" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="40" t="s">
+      <c r="K46" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="L47" s="40" t="s">
+      <c r="L46" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="14">
+        <f>SUM(C47:K47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -2523,7 +2466,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2535,13 +2478,13 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="14">
-        <f t="shared" ref="L49:L54" si="4">SUM(C49:K49)</f>
+        <f>SUM(C49:K49)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -2553,13 +2496,13 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="14">
-        <f t="shared" si="4"/>
+        <f>SUM(C50:K50)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -2571,13 +2514,14 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <f>SUM(C51:K51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
       <c r="B52" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -2589,95 +2533,65 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
+        <f>SUM(C52:K52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="C53" s="14">
+        <f>SUM(C47:C52)</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="14">
+        <f>SUM(D47:D52)</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="14">
+        <f>SUM(E47:E52)</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="14">
+        <f>SUM(F47:F52)</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="14">
+        <f>SUM(G47:G52)</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="14">
+        <f>SUM(H47:H52)</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="14">
+        <f>SUM(I47:I52)</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="14">
+        <f>SUM(J47:J52)</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="14">
+        <f>SUM(K47:K52)</f>
+        <v>0</v>
+      </c>
       <c r="L53" s="14">
-        <f t="shared" ref="L53" si="5">SUM(C53:K53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="14">
-        <f>SUM(C48:C54)</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="14">
-        <f t="shared" ref="D55:L55" si="6">SUM(D48:D54)</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="14">
-        <f t="shared" si="6"/>
+        <f>SUM(L47:L52)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:L45"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F2:G2"/>
@@ -2687,13 +2601,6 @@
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:L46"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:G32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
@@ -2706,7 +2613,7 @@
   <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection sqref="A1:Y3"/>
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -2733,39 +2640,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="25" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="25" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="25" t="s">
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="25" t="s">
+      <c r="X1" s="45"/>
+      <c r="Y1" s="32" t="s">
         <v>77</v>
       </c>
       <c r="Z1" s="17"/>
@@ -2780,112 +2687,112 @@
       <c r="AI1" s="17"/>
     </row>
     <row r="2" spans="1:35" s="17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="25" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="25" t="s">
+      <c r="S2" s="45"/>
+      <c r="T2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="42"/>
-      <c r="V2" s="39" t="s">
+      <c r="U2" s="45"/>
+      <c r="V2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="25"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="32"/>
     </row>
     <row r="3" spans="1:35" s="21" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="43" t="s">
+      <c r="N3" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="43" t="s">
+      <c r="O3" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="R3" s="43" t="s">
+      <c r="R3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="43" t="s">
+      <c r="S3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="43" t="s">
+      <c r="T3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="43" t="s">
+      <c r="U3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="39" t="s">
+      <c r="V3" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="39" t="s">
+      <c r="W3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="39" t="s">
+      <c r="X3" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="Y3" s="44"/>
+      <c r="Y3" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2905,10 +2812,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR3"/>
+  <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -2922,449 +2829,433 @@
     <col min="8" max="10" width="17.1640625" style="22" customWidth="1"/>
     <col min="11" max="12" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="5.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="5.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="5.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="56" max="59" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="5.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="71" max="16384" width="11" style="5"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8" style="15" bestFit="1" customWidth="1"/>
+    <col min="48" max="50" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="53" max="56" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8" style="15" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="68" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="28" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="29"/>
-      <c r="AX1" s="30"/>
-      <c r="AY1" s="28" t="s">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="29"/>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="29"/>
-      <c r="BD1" s="29"/>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="29"/>
-      <c r="BG1" s="29"/>
-      <c r="BH1" s="29"/>
-      <c r="BI1" s="29"/>
-      <c r="BJ1" s="29"/>
-      <c r="BK1" s="29"/>
-      <c r="BL1" s="29"/>
-      <c r="BM1" s="29"/>
-      <c r="BN1" s="29"/>
-      <c r="BO1" s="29"/>
-      <c r="BP1" s="29"/>
-      <c r="BQ1" s="29"/>
-      <c r="BR1" s="30"/>
-    </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34" t="s">
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43"/>
+      <c r="BM1" s="43"/>
+      <c r="BN1" s="43"/>
+      <c r="BO1" s="38"/>
+    </row>
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="28" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="28" t="s">
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="28" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="34" t="s">
+      <c r="AD2" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="28" t="s">
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="28" t="s">
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="28" t="s">
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AY2" s="34" t="s">
+      <c r="AW2" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="28" t="s">
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="BD2" s="29"/>
-      <c r="BE2" s="29"/>
-      <c r="BF2" s="29"/>
-      <c r="BG2" s="29"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="28" t="s">
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="BJ2" s="29"/>
-      <c r="BK2" s="29"/>
-      <c r="BL2" s="29"/>
-      <c r="BM2" s="29"/>
-      <c r="BN2" s="29"/>
-      <c r="BO2" s="29"/>
-      <c r="BP2" s="29"/>
-      <c r="BQ2" s="30"/>
-      <c r="BR2" s="28" t="s">
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43"/>
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="43"/>
+      <c r="BN2" s="38"/>
+      <c r="BO2" s="39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:70" ht="34" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:67" ht="34" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="40" t="s">
+      <c r="N3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="O3" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="P3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="Q3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S3" s="40" t="s">
+      <c r="R3" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="40" t="s">
+      <c r="S3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="40" t="s">
+      <c r="T3" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="40" t="s">
+      <c r="U3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="40" t="s">
+      <c r="V3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="40" t="s">
+      <c r="W3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="40" t="s">
+      <c r="X3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="40" t="s">
+      <c r="Y3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" s="40" t="s">
+      <c r="Z3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AB3" s="40" t="s">
+      <c r="AA3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="AC3" s="40" t="s">
+      <c r="AB3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="40" t="s">
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AF3" s="40" t="s">
+      <c r="AE3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="40" t="s">
+      <c r="AF3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="AH3" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI3" s="40" t="s">
+      <c r="AG3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AJ3" s="40" t="s">
+      <c r="AH3" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AK3" s="40" t="s">
+      <c r="AI3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AL3" s="40" t="s">
+      <c r="AJ3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AM3" s="40" t="s">
+      <c r="AK3" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AN3" s="40" t="s">
+      <c r="AL3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AO3" s="40" t="s">
+      <c r="AM3" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AP3" s="40" t="s">
+      <c r="AN3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AQ3" s="40" t="s">
+      <c r="AO3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="AR3" s="40" t="s">
+      <c r="AP3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AS3" s="40" t="s">
+      <c r="AQ3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AT3" s="40" t="s">
+      <c r="AR3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AU3" s="40" t="s">
+      <c r="AS3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AV3" s="40" t="s">
+      <c r="AT3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="AW3" s="40" t="s">
+      <c r="AU3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="40" t="s">
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AZ3" s="40" t="s">
+      <c r="AX3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="BA3" s="40" t="s">
+      <c r="AY3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="BB3" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC3" s="40" t="s">
+      <c r="AZ3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="BD3" s="40" t="s">
+      <c r="BA3" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="BE3" s="40" t="s">
+      <c r="BB3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="BF3" s="40" t="s">
+      <c r="BC3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="BG3" s="40" t="s">
+      <c r="BD3" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="BH3" s="40" t="s">
+      <c r="BE3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="BI3" s="40" t="s">
+      <c r="BF3" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="BJ3" s="40" t="s">
+      <c r="BG3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="BK3" s="40" t="s">
+      <c r="BH3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="BL3" s="40" t="s">
+      <c r="BI3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="BM3" s="40" t="s">
+      <c r="BJ3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="BN3" s="40" t="s">
+      <c r="BK3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="BO3" s="40" t="s">
+      <c r="BL3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="BP3" s="40" t="s">
+      <c r="BM3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="BQ3" s="40" t="s">
+      <c r="BN3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="BR3" s="41"/>
+      <c r="BO3" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AW1:BO1"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BN2"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AD1:AV1"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="AM2:AU2"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="U2:AC2"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="K1:AD1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="AE1:AX1"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="AO2:AW2"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AY1:BR1"/>
-    <mergeCell ref="BC2:BH2"/>
-    <mergeCell ref="BI2:BQ2"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:AB2"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="K1:AC1"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/home/static/excel/base.xlsx
+++ b/home/static/excel/base.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37880" yWindow="1080" windowWidth="37100" windowHeight="18680"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20300"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
@@ -976,6 +976,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -985,28 +998,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="295">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
@@ -1629,18 +1629,18 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="38"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
@@ -1686,23 +1686,23 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="37" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="37" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="38"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="25" t="s">
         <v>14</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -1735,7 +1735,7 @@
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="25" t="s">
         <v>9</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="25" t="s">
         <v>10</v>
       </c>
@@ -1771,7 +1771,7 @@
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="25" t="s">
         <v>62</v>
       </c>
@@ -1786,7 +1786,7 @@
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -1799,7 +1799,7 @@
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="25" t="s">
         <v>12</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="25" t="s">
         <v>13</v>
       </c>
@@ -1833,7 +1833,7 @@
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="37" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -1846,7 +1846,7 @@
       <c r="H16" s="22"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="25" t="s">
         <v>64</v>
       </c>
@@ -1874,26 +1874,26 @@
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="32" t="s">
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="28" t="s">
         <v>20</v>
       </c>
@@ -2047,35 +2047,35 @@
         <v>31</v>
       </c>
       <c r="C28" s="14">
-        <f>SUM(C22:C27)</f>
+        <f t="shared" ref="C28:J28" si="3">SUM(C22:C27)</f>
         <v>0</v>
       </c>
       <c r="D28" s="14">
-        <f>SUM(D22:D27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E28" s="14">
-        <f>SUM(E22:E27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F28" s="14">
-        <f>SUM(F22:F27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G28" s="14">
-        <f>SUM(G22:G27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H28" s="14">
-        <f>SUM(H22:H27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I28" s="14">
-        <f>SUM(I22:I27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J28" s="14">
-        <f>SUM(J22:J27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K28" s="4"/>
@@ -2110,26 +2110,26 @@
       <c r="L30" s="11"/>
     </row>
     <row r="31" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="32" t="s">
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
     </row>
     <row r="32" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="41"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="28" t="s">
         <v>20</v>
       </c>
@@ -2163,14 +2163,14 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="14">
-        <f>SUM(C33:E33)</f>
+        <f t="shared" ref="F33:F41" si="4">SUM(C33:E33)</f>
         <v>0</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="14">
-        <f>SUM(G33:I33)</f>
+        <f t="shared" ref="J33:J41" si="5">SUM(G33:I33)</f>
         <v>0</v>
       </c>
     </row>
@@ -2182,14 +2182,14 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="14">
-        <f>SUM(C34:E34)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="14">
-        <f>SUM(G34:I34)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2201,14 +2201,14 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="14">
-        <f>SUM(C35:E35)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="14">
-        <f>SUM(G35:I35)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2220,14 +2220,14 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="14">
-        <f>SUM(C36:E36)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="14">
-        <f>SUM(G36:I36)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2239,14 +2239,14 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="14">
-        <f>SUM(C37:E37)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="14">
-        <f>SUM(G37:I37)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2258,14 +2258,14 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="14">
-        <f>SUM(C38:E38)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="14">
-        <f>SUM(G38:I38)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2277,14 +2277,14 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="14">
-        <f>SUM(C39:E39)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="14">
-        <f>SUM(G39:I39)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2296,14 +2296,14 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="14">
-        <f>SUM(C40:E40)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="14">
-        <f>SUM(G40:I40)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2315,14 +2315,14 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="14">
-        <f>SUM(C41:E41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="14">
-        <f>SUM(G41:I41)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="14">
-        <f t="shared" ref="D42" si="3">SUM(D33:D41)</f>
+        <f t="shared" ref="D42" si="6">SUM(D33:D41)</f>
         <v>0</v>
       </c>
       <c r="E42" s="14">
@@ -2343,23 +2343,23 @@
         <v>0</v>
       </c>
       <c r="F42" s="14">
-        <f t="shared" ref="F42:J42" si="4">SUM(F33:F41)</f>
+        <f t="shared" ref="F42:J42" si="7">SUM(F33:F41)</f>
         <v>0</v>
       </c>
       <c r="G42" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H42" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I42" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J42" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2379,24 +2379,24 @@
       <c r="L44" s="12"/>
     </row>
     <row r="45" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="48"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="36"/>
     </row>
     <row r="46" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="28" t="s">
         <v>33</v>
       </c>
@@ -2442,7 +2442,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="14">
-        <f>SUM(C47:K47)</f>
+        <f t="shared" ref="L47:L52" si="8">SUM(C47:K47)</f>
         <v>0</v>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="14">
-        <f>SUM(C48:K48)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2478,7 +2478,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="14">
-        <f>SUM(C49:K49)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="14">
-        <f>SUM(C50:K50)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="14">
-        <f>SUM(C51:K51)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="14">
-        <f>SUM(C52:K52)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2542,48 +2542,57 @@
         <v>31</v>
       </c>
       <c r="C53" s="14">
-        <f>SUM(C47:C52)</f>
+        <f t="shared" ref="C53:L53" si="9">SUM(C47:C52)</f>
         <v>0</v>
       </c>
       <c r="D53" s="14">
-        <f>SUM(D47:D52)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E53" s="14">
-        <f>SUM(E47:E52)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F53" s="14">
-        <f>SUM(F47:F52)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G53" s="14">
-        <f>SUM(G47:G52)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H53" s="14">
-        <f>SUM(H47:H52)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I53" s="14">
-        <f>SUM(I47:I52)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J53" s="14">
-        <f>SUM(J47:J52)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K53" s="14">
-        <f>SUM(K47:K52)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L53" s="14">
-        <f>SUM(L47:L52)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="C45:L45"/>
     <mergeCell ref="B20:B21"/>
@@ -2592,15 +2601,6 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="G31:J31"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B9:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
@@ -2640,7 +2640,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="37" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="45"/>
@@ -2652,7 +2652,7 @@
       <c r="H1" s="45"/>
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="37" t="s">
         <v>67</v>
       </c>
       <c r="L1" s="45"/>
@@ -2661,18 +2661,18 @@
       <c r="O1" s="45"/>
       <c r="P1" s="45"/>
       <c r="Q1" s="45"/>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="37" t="s">
         <v>7</v>
       </c>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
       <c r="V1" s="45"/>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="37" t="s">
         <v>63</v>
       </c>
       <c r="X1" s="45"/>
-      <c r="Y1" s="32" t="s">
+      <c r="Y1" s="37" t="s">
         <v>77</v>
       </c>
       <c r="Z1" s="17"/>
@@ -2704,11 +2704,11 @@
       <c r="O2" s="45"/>
       <c r="P2" s="45"/>
       <c r="Q2" s="45"/>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="37" t="s">
         <v>3</v>
       </c>
       <c r="S2" s="45"/>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="37" t="s">
         <v>17</v>
       </c>
       <c r="U2" s="45"/>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="W2" s="45"/>
       <c r="X2" s="45"/>
-      <c r="Y2" s="32"/>
+      <c r="Y2" s="37"/>
     </row>
     <row r="3" spans="1:35" s="21" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
@@ -2814,7 +2814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
@@ -2872,172 +2872,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="39" t="s">
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="39" t="s">
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43"/>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="43"/>
-      <c r="BE1" s="43"/>
-      <c r="BF1" s="43"/>
-      <c r="BG1" s="43"/>
-      <c r="BH1" s="43"/>
-      <c r="BI1" s="43"/>
-      <c r="BJ1" s="43"/>
-      <c r="BK1" s="43"/>
-      <c r="BL1" s="43"/>
-      <c r="BM1" s="43"/>
-      <c r="BN1" s="43"/>
-      <c r="BO1" s="38"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="46"/>
+      <c r="BH1" s="46"/>
+      <c r="BI1" s="46"/>
+      <c r="BJ1" s="46"/>
+      <c r="BK1" s="46"/>
+      <c r="BL1" s="46"/>
+      <c r="BM1" s="46"/>
+      <c r="BN1" s="46"/>
+      <c r="BO1" s="42"/>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="39" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="39" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="39" t="s">
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="37" t="s">
+      <c r="AD2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="39" t="s">
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="39" t="s">
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="39" t="s">
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AW2" s="37" t="s">
+      <c r="AW2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="44"/>
-      <c r="AZ2" s="39" t="s">
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="39" t="s">
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="46"/>
+      <c r="BE2" s="42"/>
+      <c r="BF2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="43"/>
-      <c r="BM2" s="43"/>
-      <c r="BN2" s="38"/>
-      <c r="BO2" s="39" t="s">
+      <c r="BG2" s="46"/>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="46"/>
+      <c r="BJ2" s="46"/>
+      <c r="BK2" s="46"/>
+      <c r="BL2" s="46"/>
+      <c r="BM2" s="46"/>
+      <c r="BN2" s="42"/>
+      <c r="BO2" s="32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       <c r="AB3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AC3" s="41"/>
+      <c r="AC3" s="33"/>
       <c r="AD3" s="28" t="s">
         <v>20</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="AU3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AV3" s="41"/>
+      <c r="AV3" s="33"/>
       <c r="AW3" s="28" t="s">
         <v>20</v>
       </c>
@@ -3236,26 +3236,26 @@
       <c r="BN3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="BO3" s="41"/>
+      <c r="BO3" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AW1:BO1"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BN2"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AD1:AV1"/>
-    <mergeCell ref="AG2:AL2"/>
-    <mergeCell ref="AM2:AU2"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="T2:AB2"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="K1:AC1"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="AD1:AV1"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="AM2:AU2"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AW1:BO1"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BN2"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="AW2:AY2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/home/static/excel/base.xlsx
+++ b/home/static/excel/base.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="41700" yWindow="2440" windowWidth="34800" windowHeight="18200"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20300"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="4" r:id="rId1"/>
@@ -951,7 +951,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1072,6 +1072,9 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,9 +1082,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1107,6 +1107,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="295">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
@@ -2021,25 +2025,25 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="33" t="s">
         <v>25</v>
       </c>
@@ -2059,7 +2063,7 @@
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="33" t="s">
@@ -2085,7 +2089,7 @@
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="33" t="s">
         <v>30</v>
       </c>
@@ -2112,7 +2116,7 @@
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="33" t="s">
         <v>32</v>
       </c>
@@ -2137,7 +2141,7 @@
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="33" t="s">
         <v>33</v>
       </c>
@@ -2162,7 +2166,7 @@
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="33" t="s">
         <v>34</v>
       </c>
@@ -2187,7 +2191,7 @@
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="33" t="s">
         <v>35</v>
       </c>
@@ -2212,7 +2216,7 @@
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="34" t="s">
         <v>92</v>
       </c>
@@ -2237,7 +2241,7 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="2:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="33" t="s">
         <v>36</v>
       </c>
@@ -2265,7 +2269,7 @@
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -2291,7 +2295,7 @@
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="33" t="s">
         <v>30</v>
       </c>
@@ -2318,7 +2322,7 @@
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="33" t="s">
         <v>32</v>
       </c>
@@ -2343,7 +2347,7 @@
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="33" t="s">
         <v>33</v>
       </c>
@@ -2368,7 +2372,7 @@
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="33" t="s">
         <v>34</v>
       </c>
@@ -2393,7 +2397,7 @@
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="33" t="s">
         <v>35</v>
       </c>
@@ -2418,7 +2422,7 @@
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="34" t="s">
         <v>92</v>
       </c>
@@ -2443,7 +2447,7 @@
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="2:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="33" t="s">
         <v>36</v>
       </c>
@@ -2471,7 +2475,7 @@
       <c r="J19" s="31"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="46" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="33" t="s">
@@ -2497,7 +2501,7 @@
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="49"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="33" t="s">
         <v>30</v>
       </c>
@@ -2524,7 +2528,7 @@
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="33" t="s">
         <v>32</v>
       </c>
@@ -2549,7 +2553,7 @@
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="49"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="33" t="s">
         <v>33</v>
       </c>
@@ -2574,7 +2578,7 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="33" t="s">
         <v>34</v>
       </c>
@@ -2599,7 +2603,7 @@
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="33" t="s">
         <v>35</v>
       </c>
@@ -2624,7 +2628,7 @@
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="34" t="s">
         <v>92</v>
       </c>
@@ -2649,7 +2653,7 @@
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="2:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="33" t="s">
         <v>36</v>
       </c>
@@ -2677,7 +2681,7 @@
       <c r="J27" s="31"/>
     </row>
     <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="46" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="33" t="s">
@@ -2703,7 +2707,7 @@
       <c r="L28" s="10"/>
     </row>
     <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="49"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="33" t="s">
         <v>30</v>
       </c>
@@ -2730,7 +2734,7 @@
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="49"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="33" t="s">
         <v>32</v>
       </c>
@@ -2755,7 +2759,7 @@
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="49"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="33" t="s">
         <v>33</v>
       </c>
@@ -2780,7 +2784,7 @@
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="49"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="33" t="s">
         <v>34</v>
       </c>
@@ -2805,7 +2809,7 @@
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="49"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="33" t="s">
         <v>35</v>
       </c>
@@ -2830,7 +2834,7 @@
       <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="49"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="34" t="s">
         <v>92</v>
       </c>
@@ -2855,7 +2859,7 @@
       <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="49"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="33" t="s">
         <v>36</v>
       </c>
@@ -2908,17 +2912,17 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="47" t="s">
+      <c r="C38" s="47"/>
+      <c r="D38" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
@@ -2926,8 +2930,8 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="33" t="s">
         <v>25</v>
       </c>
@@ -2950,7 +2954,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="46" t="s">
         <v>80</v>
       </c>
       <c r="C40" s="33" t="s">
@@ -2979,7 +2983,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
-      <c r="B41" s="49"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="33" t="s">
         <v>38</v>
       </c>
@@ -3006,7 +3010,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
-      <c r="B42" s="49"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="33" t="s">
         <v>39</v>
       </c>
@@ -3033,7 +3037,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
-      <c r="B43" s="49"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="33" t="s">
         <v>40</v>
       </c>
@@ -3060,7 +3064,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
-      <c r="B44" s="49"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="33" t="s">
         <v>41</v>
       </c>
@@ -3087,7 +3091,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
-      <c r="B45" s="49"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="33" t="s">
         <v>42</v>
       </c>
@@ -3114,7 +3118,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
-      <c r="B46" s="49"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="33" t="s">
         <v>43</v>
       </c>
@@ -3141,7 +3145,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
-      <c r="B47" s="49"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="33" t="s">
         <v>27</v>
       </c>
@@ -3168,7 +3172,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
-      <c r="B48" s="49"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="33" t="s">
         <v>44</v>
       </c>
@@ -3194,7 +3198,7 @@
       <c r="L48" s="10"/>
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="49"/>
+      <c r="B49" s="46"/>
       <c r="C49" s="33" t="s">
         <v>36</v>
       </c>
@@ -3221,7 +3225,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="46" t="s">
         <v>81</v>
       </c>
       <c r="C50" s="33" t="s">
@@ -3250,7 +3254,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="49"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="33" t="s">
         <v>38</v>
       </c>
@@ -3277,7 +3281,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
-      <c r="B52" s="49"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="33" t="s">
         <v>39</v>
       </c>
@@ -3304,7 +3308,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
-      <c r="B53" s="49"/>
+      <c r="B53" s="46"/>
       <c r="C53" s="33" t="s">
         <v>40</v>
       </c>
@@ -3331,7 +3335,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
-      <c r="B54" s="49"/>
+      <c r="B54" s="46"/>
       <c r="C54" s="33" t="s">
         <v>41</v>
       </c>
@@ -3358,7 +3362,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
-      <c r="B55" s="49"/>
+      <c r="B55" s="46"/>
       <c r="C55" s="33" t="s">
         <v>42</v>
       </c>
@@ -3385,7 +3389,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
-      <c r="B56" s="49"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="33" t="s">
         <v>43</v>
       </c>
@@ -3412,7 +3416,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
-      <c r="B57" s="49"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="33" t="s">
         <v>27</v>
       </c>
@@ -3439,7 +3443,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
-      <c r="B58" s="49"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="33" t="s">
         <v>44</v>
       </c>
@@ -3465,7 +3469,7 @@
       <c r="L58" s="10"/>
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="49"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="33" t="s">
         <v>36</v>
       </c>
@@ -3492,7 +3496,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="46" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="33" t="s">
@@ -3521,7 +3525,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
-      <c r="B61" s="49"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="33" t="s">
         <v>38</v>
       </c>
@@ -3548,7 +3552,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
-      <c r="B62" s="49"/>
+      <c r="B62" s="46"/>
       <c r="C62" s="33" t="s">
         <v>39</v>
       </c>
@@ -3575,7 +3579,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
-      <c r="B63" s="49"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="33" t="s">
         <v>40</v>
       </c>
@@ -3602,7 +3606,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
-      <c r="B64" s="49"/>
+      <c r="B64" s="46"/>
       <c r="C64" s="33" t="s">
         <v>41</v>
       </c>
@@ -3629,7 +3633,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
-      <c r="B65" s="49"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="33" t="s">
         <v>42</v>
       </c>
@@ -3656,7 +3660,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
-      <c r="B66" s="49"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="33" t="s">
         <v>43</v>
       </c>
@@ -3683,7 +3687,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
-      <c r="B67" s="49"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="33" t="s">
         <v>27</v>
       </c>
@@ -3710,7 +3714,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
-      <c r="B68" s="49"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="33" t="s">
         <v>44</v>
       </c>
@@ -3736,7 +3740,7 @@
       <c r="L68" s="10"/>
     </row>
     <row r="69" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="49"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="33" t="s">
         <v>36</v>
       </c>
@@ -3763,7 +3767,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
-      <c r="B70" s="49" t="s">
+      <c r="B70" s="46" t="s">
         <v>82</v>
       </c>
       <c r="C70" s="33" t="s">
@@ -3792,7 +3796,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
-      <c r="B71" s="49"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="33" t="s">
         <v>38</v>
       </c>
@@ -3819,7 +3823,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
-      <c r="B72" s="49"/>
+      <c r="B72" s="46"/>
       <c r="C72" s="33" t="s">
         <v>39</v>
       </c>
@@ -3846,7 +3850,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
-      <c r="B73" s="49"/>
+      <c r="B73" s="46"/>
       <c r="C73" s="33" t="s">
         <v>40</v>
       </c>
@@ -3873,7 +3877,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
-      <c r="B74" s="49"/>
+      <c r="B74" s="46"/>
       <c r="C74" s="33" t="s">
         <v>41</v>
       </c>
@@ -3900,7 +3904,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
-      <c r="B75" s="49"/>
+      <c r="B75" s="46"/>
       <c r="C75" s="33" t="s">
         <v>42</v>
       </c>
@@ -3927,7 +3931,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
-      <c r="B76" s="49"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="33" t="s">
         <v>43</v>
       </c>
@@ -3954,7 +3958,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
-      <c r="B77" s="49"/>
+      <c r="B77" s="46"/>
       <c r="C77" s="33" t="s">
         <v>27</v>
       </c>
@@ -3981,7 +3985,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
-      <c r="B78" s="49"/>
+      <c r="B78" s="46"/>
       <c r="C78" s="33" t="s">
         <v>44</v>
       </c>
@@ -4007,7 +4011,7 @@
       <c r="L78" s="10"/>
     </row>
     <row r="79" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="49"/>
+      <c r="B79" s="46"/>
       <c r="C79" s="33" t="s">
         <v>36</v>
       </c>
@@ -4058,27 +4062,27 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
-      <c r="B82" s="47" t="s">
+      <c r="B82" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47" t="s">
+      <c r="C82" s="48"/>
+      <c r="D82" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="48"/>
-      <c r="L82" s="48"/>
-      <c r="M82" s="48"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="49"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="49"/>
+      <c r="M82" s="49"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
       <c r="D83" s="33" t="s">
         <v>37</v>
       </c>
@@ -4112,7 +4116,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
-      <c r="B84" s="49" t="s">
+      <c r="B84" s="46" t="s">
         <v>80</v>
       </c>
       <c r="C84" s="29" t="s">
@@ -4152,7 +4156,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
-      <c r="B85" s="49"/>
+      <c r="B85" s="46"/>
       <c r="C85" s="29" t="s">
         <v>30</v>
       </c>
@@ -4189,7 +4193,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="49"/>
+      <c r="B86" s="46"/>
       <c r="C86" s="29" t="s">
         <v>32</v>
       </c>
@@ -4226,7 +4230,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="49"/>
+      <c r="B87" s="46"/>
       <c r="C87" s="29" t="s">
         <v>33</v>
       </c>
@@ -4263,7 +4267,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="49"/>
+      <c r="B88" s="46"/>
       <c r="C88" s="29" t="s">
         <v>34</v>
       </c>
@@ -4301,7 +4305,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
-      <c r="B89" s="49"/>
+      <c r="B89" s="46"/>
       <c r="C89" s="29" t="s">
         <v>35</v>
       </c>
@@ -4339,7 +4343,7 @@
     </row>
     <row r="90" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
-      <c r="B90" s="49"/>
+      <c r="B90" s="46"/>
       <c r="C90" s="29" t="s">
         <v>90</v>
       </c>
@@ -4377,7 +4381,7 @@
     </row>
     <row r="91" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
-      <c r="B91" s="49"/>
+      <c r="B91" s="46"/>
       <c r="C91" s="29" t="s">
         <v>36</v>
       </c>
@@ -4424,7 +4428,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
-      <c r="B92" s="49" t="s">
+      <c r="B92" s="46" t="s">
         <v>81</v>
       </c>
       <c r="C92" s="29" t="s">
@@ -4464,7 +4468,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
-      <c r="B93" s="49"/>
+      <c r="B93" s="46"/>
       <c r="C93" s="29" t="s">
         <v>30</v>
       </c>
@@ -4501,7 +4505,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="49"/>
+      <c r="B94" s="46"/>
       <c r="C94" s="29" t="s">
         <v>32</v>
       </c>
@@ -4538,7 +4542,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="49"/>
+      <c r="B95" s="46"/>
       <c r="C95" s="29" t="s">
         <v>33</v>
       </c>
@@ -4575,7 +4579,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="49"/>
+      <c r="B96" s="46"/>
       <c r="C96" s="29" t="s">
         <v>34</v>
       </c>
@@ -4613,7 +4617,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
-      <c r="B97" s="49"/>
+      <c r="B97" s="46"/>
       <c r="C97" s="29" t="s">
         <v>35</v>
       </c>
@@ -4651,7 +4655,7 @@
     </row>
     <row r="98" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
-      <c r="B98" s="49"/>
+      <c r="B98" s="46"/>
       <c r="C98" s="29" t="s">
         <v>90</v>
       </c>
@@ -4689,7 +4693,7 @@
     </row>
     <row r="99" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
-      <c r="B99" s="49"/>
+      <c r="B99" s="46"/>
       <c r="C99" s="29" t="s">
         <v>36</v>
       </c>
@@ -4736,7 +4740,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
-      <c r="B100" s="49" t="s">
+      <c r="B100" s="46" t="s">
         <v>83</v>
       </c>
       <c r="C100" s="29" t="s">
@@ -4776,7 +4780,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
-      <c r="B101" s="49"/>
+      <c r="B101" s="46"/>
       <c r="C101" s="29" t="s">
         <v>30</v>
       </c>
@@ -4813,7 +4817,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B102" s="49"/>
+      <c r="B102" s="46"/>
       <c r="C102" s="29" t="s">
         <v>32</v>
       </c>
@@ -4850,7 +4854,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="49"/>
+      <c r="B103" s="46"/>
       <c r="C103" s="29" t="s">
         <v>33</v>
       </c>
@@ -4887,7 +4891,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B104" s="49"/>
+      <c r="B104" s="46"/>
       <c r="C104" s="29" t="s">
         <v>34</v>
       </c>
@@ -4925,7 +4929,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
-      <c r="B105" s="49"/>
+      <c r="B105" s="46"/>
       <c r="C105" s="29" t="s">
         <v>35</v>
       </c>
@@ -4963,7 +4967,7 @@
     </row>
     <row r="106" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
-      <c r="B106" s="49"/>
+      <c r="B106" s="46"/>
       <c r="C106" s="29" t="s">
         <v>90</v>
       </c>
@@ -5001,7 +5005,7 @@
     </row>
     <row r="107" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
-      <c r="B107" s="49"/>
+      <c r="B107" s="46"/>
       <c r="C107" s="29" t="s">
         <v>36</v>
       </c>
@@ -5047,7 +5051,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B108" s="49" t="s">
+      <c r="B108" s="46" t="s">
         <v>82</v>
       </c>
       <c r="C108" s="29" t="s">
@@ -5086,7 +5090,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B109" s="49"/>
+      <c r="B109" s="46"/>
       <c r="C109" s="29" t="s">
         <v>30</v>
       </c>
@@ -5123,7 +5127,7 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B110" s="49"/>
+      <c r="B110" s="46"/>
       <c r="C110" s="29" t="s">
         <v>32</v>
       </c>
@@ -5160,7 +5164,7 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="49"/>
+      <c r="B111" s="46"/>
       <c r="C111" s="29" t="s">
         <v>33</v>
       </c>
@@ -5197,7 +5201,7 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B112" s="49"/>
+      <c r="B112" s="46"/>
       <c r="C112" s="29" t="s">
         <v>34</v>
       </c>
@@ -5234,7 +5238,7 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="49"/>
+      <c r="B113" s="46"/>
       <c r="C113" s="29" t="s">
         <v>35</v>
       </c>
@@ -5272,7 +5276,7 @@
     </row>
     <row r="114" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
-      <c r="B114" s="49"/>
+      <c r="B114" s="46"/>
       <c r="C114" s="29" t="s">
         <v>90</v>
       </c>
@@ -5310,7 +5314,7 @@
     </row>
     <row r="115" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
-      <c r="B115" s="49"/>
+      <c r="B115" s="46"/>
       <c r="C115" s="29" t="s">
         <v>36</v>
       </c>
@@ -5357,13 +5361,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="B100:B107"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B20:B27"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D82:M82"/>
     <mergeCell ref="B40:B49"/>
@@ -5375,6 +5372,13 @@
     <mergeCell ref="D38:H38"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="B82:C83"/>
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B20:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
@@ -5450,7 +5454,7 @@
         <v>22</v>
       </c>
       <c r="Y1" s="41"/>
-      <c r="Z1" s="46" t="s">
+      <c r="Z1" s="47" t="s">
         <v>48</v>
       </c>
       <c r="AA1" s="11"/>
@@ -5777,7 +5781,7 @@
       <c r="AB2" s="58"/>
       <c r="AC2" s="58"/>
       <c r="AD2" s="39"/>
-      <c r="AE2" s="36" t="s">
+      <c r="AE2" s="61" t="s">
         <v>36</v>
       </c>
       <c r="AF2" s="44" t="s">
@@ -5805,7 +5809,7 @@
       <c r="AV2" s="58"/>
       <c r="AW2" s="58"/>
       <c r="AX2" s="39"/>
-      <c r="AY2" s="36" t="s">
+      <c r="AY2" s="61" t="s">
         <v>36</v>
       </c>
       <c r="AZ2" s="44" t="s">
@@ -5833,7 +5837,7 @@
       <c r="BP2" s="58"/>
       <c r="BQ2" s="58"/>
       <c r="BR2" s="39"/>
-      <c r="BS2" s="36" t="s">
+      <c r="BS2" s="61" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5928,7 +5932,7 @@
       <c r="AD3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AE3" s="38"/>
+      <c r="AE3" s="62"/>
       <c r="AF3" s="22" t="s">
         <v>25</v>
       </c>
@@ -5986,7 +5990,7 @@
       <c r="AX3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AY3" s="38"/>
+      <c r="AY3" s="62"/>
       <c r="AZ3" s="22" t="s">
         <v>25</v>
       </c>
@@ -6044,26 +6048,23 @@
       <c r="BR3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BS3" s="38"/>
+      <c r="BS3" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="13">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="L1:AE1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="AF1:AY1"/>
+    <mergeCell ref="AJ2:AO2"/>
+    <mergeCell ref="AP2:AX2"/>
+    <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AZ1:BS1"/>
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="BJ2:BR2"/>
-    <mergeCell ref="BS2:BS3"/>
     <mergeCell ref="AZ2:BC2"/>
-    <mergeCell ref="AF1:AY1"/>
-    <mergeCell ref="AJ2:AO2"/>
-    <mergeCell ref="AP2:AX2"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="L1:AE1"/>
-    <mergeCell ref="L2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/home/static/excel/base.xlsx
+++ b/home/static/excel/base.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/redukyo/workspace/management/home/static/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="4" r:id="rId1"/>
     <sheet name="overall_demographic" sheetId="1" r:id="rId2"/>
     <sheet name="by_course_KPI" sheetId="2" r:id="rId3"/>
     <sheet name="by_course_demographic" sheetId="3" r:id="rId4"/>
+    <sheet name="audit" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">by_course_KPI!$A$3:$AJ$3</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="94">
   <si>
     <t>&lt;요약&gt;</t>
   </si>
@@ -345,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +449,24 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -654,7 +673,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="295">
+  <cellStyleXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -950,8 +969,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1054,6 +1075,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1072,9 +1100,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1082,6 +1107,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1107,16 +1135,13 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="295">
+  <cellStyles count="297">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
     <cellStyle name="백분율 2" xfId="286"/>
     <cellStyle name="쉼표 [0] 2" xfId="287"/>
     <cellStyle name="쉼표 [0] 2 2" xfId="288"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="296" builtinId="9" hidden="1"/>
     <cellStyle name="표준 10" xfId="11"/>
     <cellStyle name="표준 100" xfId="101"/>
     <cellStyle name="표준 101" xfId="102"/>
@@ -1408,6 +1433,7 @@
     <cellStyle name="표준 97" xfId="98"/>
     <cellStyle name="표준 98" xfId="99"/>
     <cellStyle name="표준 99" xfId="100"/>
+    <cellStyle name="하이퍼링크" xfId="295" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1708,7 +1734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1732,18 +1758,18 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="39"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
@@ -1789,23 +1815,23 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="44" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="39"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="19" t="s">
         <v>10</v>
       </c>
@@ -1821,7 +1847,7 @@
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="48" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -1838,7 +1864,7 @@
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="19" t="s">
         <v>15</v>
       </c>
@@ -1854,7 +1880,7 @@
     </row>
     <row r="11" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="37"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="19" t="s">
         <v>16</v>
       </c>
@@ -1879,7 +1905,7 @@
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="19" t="s">
         <v>17</v>
       </c>
@@ -1894,7 +1920,7 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -1907,7 +1933,7 @@
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="19" t="s">
         <v>20</v>
       </c>
@@ -1919,7 +1945,7 @@
     </row>
     <row r="15" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="38"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="19" t="s">
         <v>21</v>
       </c>
@@ -1946,7 +1972,7 @@
       <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="39" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -1959,7 +1985,7 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="38"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="19" t="s">
         <v>24</v>
       </c>
@@ -2025,25 +2051,25 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="33" t="s">
         <v>25</v>
       </c>
@@ -2063,7 +2089,7 @@
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="52" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="33" t="s">
@@ -2089,7 +2115,7 @@
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="33" t="s">
         <v>30</v>
       </c>
@@ -2116,7 +2142,7 @@
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="33" t="s">
         <v>32</v>
       </c>
@@ -2141,7 +2167,7 @@
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="33" t="s">
         <v>33</v>
       </c>
@@ -2166,7 +2192,7 @@
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="33" t="s">
         <v>34</v>
       </c>
@@ -2191,7 +2217,7 @@
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="33" t="s">
         <v>35</v>
       </c>
@@ -2216,7 +2242,7 @@
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="34" t="s">
         <v>92</v>
       </c>
@@ -2241,7 +2267,7 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="2:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="33" t="s">
         <v>36</v>
       </c>
@@ -2269,7 +2295,7 @@
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -2295,7 +2321,7 @@
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="33" t="s">
         <v>30</v>
       </c>
@@ -2322,7 +2348,7 @@
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="33" t="s">
         <v>32</v>
       </c>
@@ -2347,7 +2373,7 @@
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="33" t="s">
         <v>33</v>
       </c>
@@ -2372,7 +2398,7 @@
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="33" t="s">
         <v>34</v>
       </c>
@@ -2397,7 +2423,7 @@
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="33" t="s">
         <v>35</v>
       </c>
@@ -2422,7 +2448,7 @@
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="34" t="s">
         <v>92</v>
       </c>
@@ -2447,7 +2473,7 @@
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="2:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="33" t="s">
         <v>36</v>
       </c>
@@ -2475,7 +2501,7 @@
       <c r="J19" s="31"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="52" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="33" t="s">
@@ -2501,7 +2527,7 @@
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="33" t="s">
         <v>30</v>
       </c>
@@ -2528,7 +2554,7 @@
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="33" t="s">
         <v>32</v>
       </c>
@@ -2553,7 +2579,7 @@
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="46"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="33" t="s">
         <v>33</v>
       </c>
@@ -2578,7 +2604,7 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="33" t="s">
         <v>34</v>
       </c>
@@ -2603,7 +2629,7 @@
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="46"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="33" t="s">
         <v>35</v>
       </c>
@@ -2628,7 +2654,7 @@
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="46"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="34" t="s">
         <v>92</v>
       </c>
@@ -2653,7 +2679,7 @@
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="2:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="46"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="33" t="s">
         <v>36</v>
       </c>
@@ -2681,7 +2707,7 @@
       <c r="J27" s="31"/>
     </row>
     <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="52" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="33" t="s">
@@ -2707,7 +2733,7 @@
       <c r="L28" s="10"/>
     </row>
     <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="46"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="33" t="s">
         <v>30</v>
       </c>
@@ -2734,7 +2760,7 @@
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="46"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="33" t="s">
         <v>32</v>
       </c>
@@ -2759,7 +2785,7 @@
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="46"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="33" t="s">
         <v>33</v>
       </c>
@@ -2784,7 +2810,7 @@
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="46"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="33" t="s">
         <v>34</v>
       </c>
@@ -2809,7 +2835,7 @@
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="46"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="33" t="s">
         <v>35</v>
       </c>
@@ -2834,7 +2860,7 @@
       <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="46"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="34" t="s">
         <v>92</v>
       </c>
@@ -2859,7 +2885,7 @@
       <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="46"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="33" t="s">
         <v>36</v>
       </c>
@@ -2912,17 +2938,17 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48" t="s">
+      <c r="C38" s="49"/>
+      <c r="D38" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
@@ -2930,8 +2956,8 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="33" t="s">
         <v>25</v>
       </c>
@@ -2954,7 +2980,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="52" t="s">
         <v>80</v>
       </c>
       <c r="C40" s="33" t="s">
@@ -2983,7 +3009,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
-      <c r="B41" s="46"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="33" t="s">
         <v>38</v>
       </c>
@@ -3010,7 +3036,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
-      <c r="B42" s="46"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="33" t="s">
         <v>39</v>
       </c>
@@ -3037,7 +3063,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
-      <c r="B43" s="46"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="33" t="s">
         <v>40</v>
       </c>
@@ -3064,7 +3090,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
-      <c r="B44" s="46"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="33" t="s">
         <v>41</v>
       </c>
@@ -3091,7 +3117,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
-      <c r="B45" s="46"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="33" t="s">
         <v>42</v>
       </c>
@@ -3118,7 +3144,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
-      <c r="B46" s="46"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="33" t="s">
         <v>43</v>
       </c>
@@ -3145,7 +3171,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
-      <c r="B47" s="46"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="33" t="s">
         <v>27</v>
       </c>
@@ -3172,7 +3198,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
-      <c r="B48" s="46"/>
+      <c r="B48" s="52"/>
       <c r="C48" s="33" t="s">
         <v>44</v>
       </c>
@@ -3198,7 +3224,7 @@
       <c r="L48" s="10"/>
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="46"/>
+      <c r="B49" s="52"/>
       <c r="C49" s="33" t="s">
         <v>36</v>
       </c>
@@ -3225,7 +3251,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C50" s="33" t="s">
@@ -3254,7 +3280,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="46"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="33" t="s">
         <v>38</v>
       </c>
@@ -3281,7 +3307,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
-      <c r="B52" s="46"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="33" t="s">
         <v>39</v>
       </c>
@@ -3308,7 +3334,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
-      <c r="B53" s="46"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="33" t="s">
         <v>40</v>
       </c>
@@ -3335,7 +3361,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
-      <c r="B54" s="46"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="33" t="s">
         <v>41</v>
       </c>
@@ -3362,7 +3388,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
-      <c r="B55" s="46"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="33" t="s">
         <v>42</v>
       </c>
@@ -3389,7 +3415,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
-      <c r="B56" s="46"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="33" t="s">
         <v>43</v>
       </c>
@@ -3416,7 +3442,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
-      <c r="B57" s="46"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="33" t="s">
         <v>27</v>
       </c>
@@ -3443,7 +3469,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
-      <c r="B58" s="46"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="33" t="s">
         <v>44</v>
       </c>
@@ -3469,7 +3495,7 @@
       <c r="L58" s="10"/>
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="46"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="33" t="s">
         <v>36</v>
       </c>
@@ -3496,7 +3522,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="52" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="33" t="s">
@@ -3525,7 +3551,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="52"/>
       <c r="C61" s="33" t="s">
         <v>38</v>
       </c>
@@ -3552,7 +3578,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
-      <c r="B62" s="46"/>
+      <c r="B62" s="52"/>
       <c r="C62" s="33" t="s">
         <v>39</v>
       </c>
@@ -3579,7 +3605,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
-      <c r="B63" s="46"/>
+      <c r="B63" s="52"/>
       <c r="C63" s="33" t="s">
         <v>40</v>
       </c>
@@ -3606,7 +3632,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
-      <c r="B64" s="46"/>
+      <c r="B64" s="52"/>
       <c r="C64" s="33" t="s">
         <v>41</v>
       </c>
@@ -3633,7 +3659,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
-      <c r="B65" s="46"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="33" t="s">
         <v>42</v>
       </c>
@@ -3660,7 +3686,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="52"/>
       <c r="C66" s="33" t="s">
         <v>43</v>
       </c>
@@ -3687,7 +3713,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
-      <c r="B67" s="46"/>
+      <c r="B67" s="52"/>
       <c r="C67" s="33" t="s">
         <v>27</v>
       </c>
@@ -3714,7 +3740,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
-      <c r="B68" s="46"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="33" t="s">
         <v>44</v>
       </c>
@@ -3740,7 +3766,7 @@
       <c r="L68" s="10"/>
     </row>
     <row r="69" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="46"/>
+      <c r="B69" s="52"/>
       <c r="C69" s="33" t="s">
         <v>36</v>
       </c>
@@ -3767,7 +3793,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="52" t="s">
         <v>82</v>
       </c>
       <c r="C70" s="33" t="s">
@@ -3796,7 +3822,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
-      <c r="B71" s="46"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="33" t="s">
         <v>38</v>
       </c>
@@ -3823,7 +3849,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
-      <c r="B72" s="46"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="33" t="s">
         <v>39</v>
       </c>
@@ -3850,7 +3876,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
-      <c r="B73" s="46"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="33" t="s">
         <v>40</v>
       </c>
@@ -3877,7 +3903,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
-      <c r="B74" s="46"/>
+      <c r="B74" s="52"/>
       <c r="C74" s="33" t="s">
         <v>41</v>
       </c>
@@ -3904,7 +3930,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
-      <c r="B75" s="46"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="33" t="s">
         <v>42</v>
       </c>
@@ -3931,7 +3957,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
-      <c r="B76" s="46"/>
+      <c r="B76" s="52"/>
       <c r="C76" s="33" t="s">
         <v>43</v>
       </c>
@@ -3958,7 +3984,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
-      <c r="B77" s="46"/>
+      <c r="B77" s="52"/>
       <c r="C77" s="33" t="s">
         <v>27</v>
       </c>
@@ -3985,7 +4011,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
-      <c r="B78" s="46"/>
+      <c r="B78" s="52"/>
       <c r="C78" s="33" t="s">
         <v>44</v>
       </c>
@@ -4011,7 +4037,7 @@
       <c r="L78" s="10"/>
     </row>
     <row r="79" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="46"/>
+      <c r="B79" s="52"/>
       <c r="C79" s="33" t="s">
         <v>36</v>
       </c>
@@ -4062,27 +4088,27 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
-      <c r="B82" s="48" t="s">
+      <c r="B82" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48" t="s">
+      <c r="C82" s="50"/>
+      <c r="D82" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="49"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="51"/>
+      <c r="M82" s="51"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
-      <c r="B83" s="48"/>
-      <c r="C83" s="48"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="50"/>
       <c r="D83" s="33" t="s">
         <v>37</v>
       </c>
@@ -4116,7 +4142,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
-      <c r="B84" s="46" t="s">
+      <c r="B84" s="52" t="s">
         <v>80</v>
       </c>
       <c r="C84" s="29" t="s">
@@ -4156,7 +4182,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
-      <c r="B85" s="46"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="29" t="s">
         <v>30</v>
       </c>
@@ -4193,7 +4219,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="46"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="29" t="s">
         <v>32</v>
       </c>
@@ -4230,7 +4256,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="46"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="29" t="s">
         <v>33</v>
       </c>
@@ -4267,7 +4293,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="46"/>
+      <c r="B88" s="52"/>
       <c r="C88" s="29" t="s">
         <v>34</v>
       </c>
@@ -4305,7 +4331,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
-      <c r="B89" s="46"/>
+      <c r="B89" s="52"/>
       <c r="C89" s="29" t="s">
         <v>35</v>
       </c>
@@ -4343,7 +4369,7 @@
     </row>
     <row r="90" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
-      <c r="B90" s="46"/>
+      <c r="B90" s="52"/>
       <c r="C90" s="29" t="s">
         <v>90</v>
       </c>
@@ -4381,7 +4407,7 @@
     </row>
     <row r="91" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
-      <c r="B91" s="46"/>
+      <c r="B91" s="52"/>
       <c r="C91" s="29" t="s">
         <v>36</v>
       </c>
@@ -4428,7 +4454,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
-      <c r="B92" s="46" t="s">
+      <c r="B92" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C92" s="29" t="s">
@@ -4468,7 +4494,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
-      <c r="B93" s="46"/>
+      <c r="B93" s="52"/>
       <c r="C93" s="29" t="s">
         <v>30</v>
       </c>
@@ -4505,7 +4531,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="46"/>
+      <c r="B94" s="52"/>
       <c r="C94" s="29" t="s">
         <v>32</v>
       </c>
@@ -4542,7 +4568,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="46"/>
+      <c r="B95" s="52"/>
       <c r="C95" s="29" t="s">
         <v>33</v>
       </c>
@@ -4579,7 +4605,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="46"/>
+      <c r="B96" s="52"/>
       <c r="C96" s="29" t="s">
         <v>34</v>
       </c>
@@ -4617,7 +4643,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
-      <c r="B97" s="46"/>
+      <c r="B97" s="52"/>
       <c r="C97" s="29" t="s">
         <v>35</v>
       </c>
@@ -4655,7 +4681,7 @@
     </row>
     <row r="98" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
-      <c r="B98" s="46"/>
+      <c r="B98" s="52"/>
       <c r="C98" s="29" t="s">
         <v>90</v>
       </c>
@@ -4693,7 +4719,7 @@
     </row>
     <row r="99" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
-      <c r="B99" s="46"/>
+      <c r="B99" s="52"/>
       <c r="C99" s="29" t="s">
         <v>36</v>
       </c>
@@ -4740,7 +4766,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="52" t="s">
         <v>83</v>
       </c>
       <c r="C100" s="29" t="s">
@@ -4780,7 +4806,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
-      <c r="B101" s="46"/>
+      <c r="B101" s="52"/>
       <c r="C101" s="29" t="s">
         <v>30</v>
       </c>
@@ -4817,7 +4843,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B102" s="46"/>
+      <c r="B102" s="52"/>
       <c r="C102" s="29" t="s">
         <v>32</v>
       </c>
@@ -4854,7 +4880,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="46"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="29" t="s">
         <v>33</v>
       </c>
@@ -4891,7 +4917,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B104" s="46"/>
+      <c r="B104" s="52"/>
       <c r="C104" s="29" t="s">
         <v>34</v>
       </c>
@@ -4929,7 +4955,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
-      <c r="B105" s="46"/>
+      <c r="B105" s="52"/>
       <c r="C105" s="29" t="s">
         <v>35</v>
       </c>
@@ -4967,7 +4993,7 @@
     </row>
     <row r="106" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
-      <c r="B106" s="46"/>
+      <c r="B106" s="52"/>
       <c r="C106" s="29" t="s">
         <v>90</v>
       </c>
@@ -5005,7 +5031,7 @@
     </row>
     <row r="107" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
-      <c r="B107" s="46"/>
+      <c r="B107" s="52"/>
       <c r="C107" s="29" t="s">
         <v>36</v>
       </c>
@@ -5051,7 +5077,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B108" s="46" t="s">
+      <c r="B108" s="52" t="s">
         <v>82</v>
       </c>
       <c r="C108" s="29" t="s">
@@ -5090,7 +5116,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B109" s="46"/>
+      <c r="B109" s="52"/>
       <c r="C109" s="29" t="s">
         <v>30</v>
       </c>
@@ -5127,7 +5153,7 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B110" s="46"/>
+      <c r="B110" s="52"/>
       <c r="C110" s="29" t="s">
         <v>32</v>
       </c>
@@ -5164,7 +5190,7 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="46"/>
+      <c r="B111" s="52"/>
       <c r="C111" s="29" t="s">
         <v>33</v>
       </c>
@@ -5201,7 +5227,7 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B112" s="46"/>
+      <c r="B112" s="52"/>
       <c r="C112" s="29" t="s">
         <v>34</v>
       </c>
@@ -5238,7 +5264,7 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="46"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="29" t="s">
         <v>35</v>
       </c>
@@ -5276,7 +5302,7 @@
     </row>
     <row r="114" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
-      <c r="B114" s="46"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="29" t="s">
         <v>90</v>
       </c>
@@ -5314,7 +5340,7 @@
     </row>
     <row r="115" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
-      <c r="B115" s="46"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="29" t="s">
         <v>36</v>
       </c>
@@ -5361,6 +5387,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B20:B27"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D82:M82"/>
     <mergeCell ref="B40:B49"/>
@@ -5372,13 +5405,6 @@
     <mergeCell ref="D38:H38"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="B82:C83"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="B100:B107"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B20:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
@@ -5421,40 +5447,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="36" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="36" t="s">
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="36" t="s">
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="47" t="s">
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="49" t="s">
         <v>48</v>
       </c>
       <c r="AA1" s="11"/>
@@ -5469,38 +5495,38 @@
       <c r="AJ1" s="11"/>
     </row>
     <row r="2" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="36" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="36" t="s">
+      <c r="T2" s="42"/>
+      <c r="U2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="39"/>
+      <c r="V2" s="42"/>
       <c r="W2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="55"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="58"/>
     </row>
     <row r="3" spans="1:36" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5601,7 +5627,7 @@
   <dimension ref="A1:BS3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -5664,180 +5690,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="36" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="36" t="s">
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="39"/>
-      <c r="AZ1" s="36" t="s">
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="58"/>
-      <c r="BO1" s="58"/>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="58"/>
-      <c r="BR1" s="58"/>
-      <c r="BS1" s="39"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="62"/>
+      <c r="BC1" s="62"/>
+      <c r="BD1" s="62"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="62"/>
+      <c r="BG1" s="62"/>
+      <c r="BH1" s="62"/>
+      <c r="BI1" s="62"/>
+      <c r="BJ1" s="62"/>
+      <c r="BK1" s="62"/>
+      <c r="BL1" s="62"/>
+      <c r="BM1" s="62"/>
+      <c r="BN1" s="62"/>
+      <c r="BO1" s="62"/>
+      <c r="BP1" s="62"/>
+      <c r="BQ1" s="62"/>
+      <c r="BR1" s="62"/>
+      <c r="BS1" s="63"/>
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="36" t="s">
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="36" t="s">
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="61" t="s">
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="44" t="s">
+      <c r="AF2" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="36" t="s">
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="36" t="s">
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="62"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="61" t="s">
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="62"/>
+      <c r="AT2" s="62"/>
+      <c r="AU2" s="62"/>
+      <c r="AV2" s="62"/>
+      <c r="AW2" s="62"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="AZ2" s="44" t="s">
+      <c r="AZ2" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="59"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="36" t="s">
+      <c r="BA2" s="62"/>
+      <c r="BB2" s="62"/>
+      <c r="BC2" s="63"/>
+      <c r="BD2" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="39"/>
-      <c r="BJ2" s="36" t="s">
+      <c r="BE2" s="62"/>
+      <c r="BF2" s="62"/>
+      <c r="BG2" s="62"/>
+      <c r="BH2" s="62"/>
+      <c r="BI2" s="63"/>
+      <c r="BJ2" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="BK2" s="58"/>
-      <c r="BL2" s="58"/>
-      <c r="BM2" s="58"/>
-      <c r="BN2" s="58"/>
-      <c r="BO2" s="58"/>
-      <c r="BP2" s="58"/>
-      <c r="BQ2" s="58"/>
-      <c r="BR2" s="39"/>
-      <c r="BS2" s="61" t="s">
+      <c r="BK2" s="62"/>
+      <c r="BL2" s="62"/>
+      <c r="BM2" s="62"/>
+      <c r="BN2" s="62"/>
+      <c r="BO2" s="62"/>
+      <c r="BP2" s="62"/>
+      <c r="BQ2" s="62"/>
+      <c r="BR2" s="63"/>
+      <c r="BS2" s="37" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5884,7 +5910,7 @@
       <c r="N3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="36" t="s">
         <v>91</v>
       </c>
       <c r="P3" s="22" t="s">
@@ -5932,7 +5958,7 @@
       <c r="AD3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AE3" s="62"/>
+      <c r="AE3" s="38"/>
       <c r="AF3" s="22" t="s">
         <v>25</v>
       </c>
@@ -5942,7 +5968,7 @@
       <c r="AH3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" s="33" t="s">
+      <c r="AI3" s="36" t="s">
         <v>91</v>
       </c>
       <c r="AJ3" s="22" t="s">
@@ -5990,7 +6016,7 @@
       <c r="AX3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AY3" s="62"/>
+      <c r="AY3" s="38"/>
       <c r="AZ3" s="22" t="s">
         <v>25</v>
       </c>
@@ -6000,7 +6026,7 @@
       <c r="BB3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="BC3" s="33" t="s">
+      <c r="BC3" s="36" t="s">
         <v>91</v>
       </c>
       <c r="BD3" s="22" t="s">
@@ -6048,15 +6074,10 @@
       <c r="BR3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BS3" s="62"/>
+      <c r="BS3" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="L1:AE1"/>
-    <mergeCell ref="L2:O2"/>
     <mergeCell ref="AF1:AY1"/>
     <mergeCell ref="AJ2:AO2"/>
     <mergeCell ref="AP2:AX2"/>
@@ -6065,6 +6086,486 @@
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="BJ2:BR2"/>
     <mergeCell ref="AZ2:BC2"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="L1:AE1"/>
+    <mergeCell ref="L2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BS3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="5.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="4.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.33203125" style="18" customWidth="1"/>
+    <col min="35" max="35" width="7.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="5.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="5.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="4.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="57" max="60" width="5.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="5.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="5.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="5.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11" style="10" customWidth="1"/>
+    <col min="73" max="16384" width="11" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="62"/>
+      <c r="BC1" s="62"/>
+      <c r="BD1" s="62"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="62"/>
+      <c r="BG1" s="62"/>
+      <c r="BH1" s="62"/>
+      <c r="BI1" s="62"/>
+      <c r="BJ1" s="62"/>
+      <c r="BK1" s="62"/>
+      <c r="BL1" s="62"/>
+      <c r="BM1" s="62"/>
+      <c r="BN1" s="62"/>
+      <c r="BO1" s="62"/>
+      <c r="BP1" s="62"/>
+      <c r="BQ1" s="62"/>
+      <c r="BR1" s="62"/>
+      <c r="BS1" s="63"/>
+    </row>
+    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="62"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="62"/>
+      <c r="AT2" s="62"/>
+      <c r="AU2" s="62"/>
+      <c r="AV2" s="62"/>
+      <c r="AW2" s="62"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA2" s="62"/>
+      <c r="BB2" s="62"/>
+      <c r="BC2" s="63"/>
+      <c r="BD2" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE2" s="62"/>
+      <c r="BF2" s="62"/>
+      <c r="BG2" s="62"/>
+      <c r="BH2" s="62"/>
+      <c r="BI2" s="63"/>
+      <c r="BJ2" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK2" s="62"/>
+      <c r="BL2" s="62"/>
+      <c r="BM2" s="62"/>
+      <c r="BN2" s="62"/>
+      <c r="BO2" s="62"/>
+      <c r="BP2" s="62"/>
+      <c r="BQ2" s="62"/>
+      <c r="BR2" s="63"/>
+      <c r="BS2" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI3" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY3" s="38"/>
+      <c r="AZ3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC3" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="BK3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="BN3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS3" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="AZ2:BC2"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="BJ2:BR2"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:AE1"/>
+    <mergeCell ref="AF1:AY1"/>
+    <mergeCell ref="AZ1:BS1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AO2"/>
+    <mergeCell ref="AP2:AX2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/home/static/excel/base.xlsx
+++ b/home/static/excel/base.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20000" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="4" r:id="rId1"/>
     <sheet name="overall_demographic" sheetId="1" r:id="rId2"/>
-    <sheet name="by_course_KPI" sheetId="2" r:id="rId3"/>
-    <sheet name="by_course_demographic" sheetId="3" r:id="rId4"/>
-    <sheet name="audit" sheetId="7" r:id="rId5"/>
+    <sheet name="by_course_KPI_honor" sheetId="9" r:id="rId3"/>
+    <sheet name="by_course_KPI_audit" sheetId="2" r:id="rId4"/>
+    <sheet name="by_course_demographic_honor" sheetId="3" r:id="rId5"/>
+    <sheet name="by_course_demographic_audit" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">by_course_KPI!$A$3:$AJ$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">by_course_KPI_audit!$A$3:$AJ$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">by_course_KPI_honor!$A$3:$AJ$3</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="94">
   <si>
     <t>&lt;요약&gt;</t>
   </si>
@@ -1100,6 +1102,9 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1107,9 +1112,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2051,25 +2053,25 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="33" t="s">
         <v>25</v>
       </c>
@@ -2089,7 +2091,7 @@
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="49" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="33" t="s">
@@ -2115,7 +2117,7 @@
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="52"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="33" t="s">
         <v>30</v>
       </c>
@@ -2142,7 +2144,7 @@
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="33" t="s">
         <v>32</v>
       </c>
@@ -2167,7 +2169,7 @@
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="33" t="s">
         <v>33</v>
       </c>
@@ -2192,7 +2194,7 @@
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="33" t="s">
         <v>34</v>
       </c>
@@ -2217,7 +2219,7 @@
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="52"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="33" t="s">
         <v>35</v>
       </c>
@@ -2242,7 +2244,7 @@
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="52"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="34" t="s">
         <v>92</v>
       </c>
@@ -2267,7 +2269,7 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="2:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="52"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="33" t="s">
         <v>36</v>
       </c>
@@ -2295,7 +2297,7 @@
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="49" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -2321,7 +2323,7 @@
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="52"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="33" t="s">
         <v>30</v>
       </c>
@@ -2348,7 +2350,7 @@
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="52"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="33" t="s">
         <v>32</v>
       </c>
@@ -2373,7 +2375,7 @@
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="52"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="33" t="s">
         <v>33</v>
       </c>
@@ -2398,7 +2400,7 @@
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="52"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="33" t="s">
         <v>34</v>
       </c>
@@ -2423,7 +2425,7 @@
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="52"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="33" t="s">
         <v>35</v>
       </c>
@@ -2448,7 +2450,7 @@
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="52"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="34" t="s">
         <v>92</v>
       </c>
@@ -2473,7 +2475,7 @@
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="2:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="52"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="33" t="s">
         <v>36</v>
       </c>
@@ -2501,7 +2503,7 @@
       <c r="J19" s="31"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="49" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="33" t="s">
@@ -2527,7 +2529,7 @@
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="52"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="33" t="s">
         <v>30</v>
       </c>
@@ -2554,7 +2556,7 @@
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="52"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="33" t="s">
         <v>32</v>
       </c>
@@ -2579,7 +2581,7 @@
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="52"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="33" t="s">
         <v>33</v>
       </c>
@@ -2604,7 +2606,7 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="52"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="33" t="s">
         <v>34</v>
       </c>
@@ -2629,7 +2631,7 @@
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="52"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="33" t="s">
         <v>35</v>
       </c>
@@ -2654,7 +2656,7 @@
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="52"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="34" t="s">
         <v>92</v>
       </c>
@@ -2679,7 +2681,7 @@
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="2:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="52"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="33" t="s">
         <v>36</v>
       </c>
@@ -2707,7 +2709,7 @@
       <c r="J27" s="31"/>
     </row>
     <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="49" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="33" t="s">
@@ -2733,7 +2735,7 @@
       <c r="L28" s="10"/>
     </row>
     <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="52"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="33" t="s">
         <v>30</v>
       </c>
@@ -2760,7 +2762,7 @@
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="52"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="33" t="s">
         <v>32</v>
       </c>
@@ -2785,7 +2787,7 @@
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="52"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="33" t="s">
         <v>33</v>
       </c>
@@ -2810,7 +2812,7 @@
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="52"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="33" t="s">
         <v>34</v>
       </c>
@@ -2835,7 +2837,7 @@
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="52"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="33" t="s">
         <v>35</v>
       </c>
@@ -2860,7 +2862,7 @@
       <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="52"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="34" t="s">
         <v>92</v>
       </c>
@@ -2885,7 +2887,7 @@
       <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="52"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="33" t="s">
         <v>36</v>
       </c>
@@ -2938,17 +2940,17 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50" t="s">
+      <c r="C38" s="50"/>
+      <c r="D38" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
@@ -2956,8 +2958,8 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="33" t="s">
         <v>25</v>
       </c>
@@ -2980,7 +2982,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="49" t="s">
         <v>80</v>
       </c>
       <c r="C40" s="33" t="s">
@@ -3009,7 +3011,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
-      <c r="B41" s="52"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="33" t="s">
         <v>38</v>
       </c>
@@ -3036,7 +3038,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
-      <c r="B42" s="52"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="33" t="s">
         <v>39</v>
       </c>
@@ -3063,7 +3065,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
-      <c r="B43" s="52"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="33" t="s">
         <v>40</v>
       </c>
@@ -3090,7 +3092,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
-      <c r="B44" s="52"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="33" t="s">
         <v>41</v>
       </c>
@@ -3117,7 +3119,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
-      <c r="B45" s="52"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="33" t="s">
         <v>42</v>
       </c>
@@ -3144,7 +3146,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
-      <c r="B46" s="52"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="33" t="s">
         <v>43</v>
       </c>
@@ -3171,7 +3173,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
-      <c r="B47" s="52"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="33" t="s">
         <v>27</v>
       </c>
@@ -3198,7 +3200,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
-      <c r="B48" s="52"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="33" t="s">
         <v>44</v>
       </c>
@@ -3224,7 +3226,7 @@
       <c r="L48" s="10"/>
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="52"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="33" t="s">
         <v>36</v>
       </c>
@@ -3251,7 +3253,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="49" t="s">
         <v>81</v>
       </c>
       <c r="C50" s="33" t="s">
@@ -3280,7 +3282,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="52"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="33" t="s">
         <v>38</v>
       </c>
@@ -3307,7 +3309,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
-      <c r="B52" s="52"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="33" t="s">
         <v>39</v>
       </c>
@@ -3334,7 +3336,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
-      <c r="B53" s="52"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="33" t="s">
         <v>40</v>
       </c>
@@ -3361,7 +3363,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
-      <c r="B54" s="52"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="33" t="s">
         <v>41</v>
       </c>
@@ -3388,7 +3390,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
-      <c r="B55" s="52"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="33" t="s">
         <v>42</v>
       </c>
@@ -3415,7 +3417,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
-      <c r="B56" s="52"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="33" t="s">
         <v>43</v>
       </c>
@@ -3442,7 +3444,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
-      <c r="B57" s="52"/>
+      <c r="B57" s="49"/>
       <c r="C57" s="33" t="s">
         <v>27</v>
       </c>
@@ -3469,7 +3471,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
-      <c r="B58" s="52"/>
+      <c r="B58" s="49"/>
       <c r="C58" s="33" t="s">
         <v>44</v>
       </c>
@@ -3495,7 +3497,7 @@
       <c r="L58" s="10"/>
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="52"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="33" t="s">
         <v>36</v>
       </c>
@@ -3522,7 +3524,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="49" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="33" t="s">
@@ -3551,7 +3553,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
-      <c r="B61" s="52"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="33" t="s">
         <v>38</v>
       </c>
@@ -3578,7 +3580,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
-      <c r="B62" s="52"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="33" t="s">
         <v>39</v>
       </c>
@@ -3605,7 +3607,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
-      <c r="B63" s="52"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="33" t="s">
         <v>40</v>
       </c>
@@ -3632,7 +3634,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
-      <c r="B64" s="52"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="33" t="s">
         <v>41</v>
       </c>
@@ -3659,7 +3661,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
-      <c r="B65" s="52"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="33" t="s">
         <v>42</v>
       </c>
@@ -3686,7 +3688,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
-      <c r="B66" s="52"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="33" t="s">
         <v>43</v>
       </c>
@@ -3713,7 +3715,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
-      <c r="B67" s="52"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="33" t="s">
         <v>27</v>
       </c>
@@ -3740,7 +3742,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
-      <c r="B68" s="52"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="33" t="s">
         <v>44</v>
       </c>
@@ -3766,7 +3768,7 @@
       <c r="L68" s="10"/>
     </row>
     <row r="69" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="52"/>
+      <c r="B69" s="49"/>
       <c r="C69" s="33" t="s">
         <v>36</v>
       </c>
@@ -3793,7 +3795,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="49" t="s">
         <v>82</v>
       </c>
       <c r="C70" s="33" t="s">
@@ -3822,7 +3824,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
-      <c r="B71" s="52"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="33" t="s">
         <v>38</v>
       </c>
@@ -3849,7 +3851,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
-      <c r="B72" s="52"/>
+      <c r="B72" s="49"/>
       <c r="C72" s="33" t="s">
         <v>39</v>
       </c>
@@ -3876,7 +3878,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
-      <c r="B73" s="52"/>
+      <c r="B73" s="49"/>
       <c r="C73" s="33" t="s">
         <v>40</v>
       </c>
@@ -3903,7 +3905,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
-      <c r="B74" s="52"/>
+      <c r="B74" s="49"/>
       <c r="C74" s="33" t="s">
         <v>41</v>
       </c>
@@ -3930,7 +3932,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
-      <c r="B75" s="52"/>
+      <c r="B75" s="49"/>
       <c r="C75" s="33" t="s">
         <v>42</v>
       </c>
@@ -3957,7 +3959,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
-      <c r="B76" s="52"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="33" t="s">
         <v>43</v>
       </c>
@@ -3984,7 +3986,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
-      <c r="B77" s="52"/>
+      <c r="B77" s="49"/>
       <c r="C77" s="33" t="s">
         <v>27</v>
       </c>
@@ -4011,7 +4013,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
-      <c r="B78" s="52"/>
+      <c r="B78" s="49"/>
       <c r="C78" s="33" t="s">
         <v>44</v>
       </c>
@@ -4037,7 +4039,7 @@
       <c r="L78" s="10"/>
     </row>
     <row r="79" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="52"/>
+      <c r="B79" s="49"/>
       <c r="C79" s="33" t="s">
         <v>36</v>
       </c>
@@ -4088,27 +4090,27 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
-      <c r="B82" s="50" t="s">
+      <c r="B82" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50" t="s">
+      <c r="C82" s="51"/>
+      <c r="D82" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="51"/>
-      <c r="F82" s="51"/>
-      <c r="G82" s="51"/>
-      <c r="H82" s="51"/>
-      <c r="I82" s="51"/>
-      <c r="J82" s="51"/>
-      <c r="K82" s="51"/>
-      <c r="L82" s="51"/>
-      <c r="M82" s="51"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="52"/>
+      <c r="K82" s="52"/>
+      <c r="L82" s="52"/>
+      <c r="M82" s="52"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="50"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
       <c r="D83" s="33" t="s">
         <v>37</v>
       </c>
@@ -4142,7 +4144,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
-      <c r="B84" s="52" t="s">
+      <c r="B84" s="49" t="s">
         <v>80</v>
       </c>
       <c r="C84" s="29" t="s">
@@ -4182,7 +4184,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
-      <c r="B85" s="52"/>
+      <c r="B85" s="49"/>
       <c r="C85" s="29" t="s">
         <v>30</v>
       </c>
@@ -4219,7 +4221,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="52"/>
+      <c r="B86" s="49"/>
       <c r="C86" s="29" t="s">
         <v>32</v>
       </c>
@@ -4256,7 +4258,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="52"/>
+      <c r="B87" s="49"/>
       <c r="C87" s="29" t="s">
         <v>33</v>
       </c>
@@ -4293,7 +4295,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="52"/>
+      <c r="B88" s="49"/>
       <c r="C88" s="29" t="s">
         <v>34</v>
       </c>
@@ -4331,7 +4333,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
-      <c r="B89" s="52"/>
+      <c r="B89" s="49"/>
       <c r="C89" s="29" t="s">
         <v>35</v>
       </c>
@@ -4369,7 +4371,7 @@
     </row>
     <row r="90" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
-      <c r="B90" s="52"/>
+      <c r="B90" s="49"/>
       <c r="C90" s="29" t="s">
         <v>90</v>
       </c>
@@ -4407,7 +4409,7 @@
     </row>
     <row r="91" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
-      <c r="B91" s="52"/>
+      <c r="B91" s="49"/>
       <c r="C91" s="29" t="s">
         <v>36</v>
       </c>
@@ -4454,7 +4456,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
-      <c r="B92" s="52" t="s">
+      <c r="B92" s="49" t="s">
         <v>81</v>
       </c>
       <c r="C92" s="29" t="s">
@@ -4494,7 +4496,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
-      <c r="B93" s="52"/>
+      <c r="B93" s="49"/>
       <c r="C93" s="29" t="s">
         <v>30</v>
       </c>
@@ -4531,7 +4533,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="52"/>
+      <c r="B94" s="49"/>
       <c r="C94" s="29" t="s">
         <v>32</v>
       </c>
@@ -4568,7 +4570,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="52"/>
+      <c r="B95" s="49"/>
       <c r="C95" s="29" t="s">
         <v>33</v>
       </c>
@@ -4605,7 +4607,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="52"/>
+      <c r="B96" s="49"/>
       <c r="C96" s="29" t="s">
         <v>34</v>
       </c>
@@ -4643,7 +4645,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
-      <c r="B97" s="52"/>
+      <c r="B97" s="49"/>
       <c r="C97" s="29" t="s">
         <v>35</v>
       </c>
@@ -4681,7 +4683,7 @@
     </row>
     <row r="98" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
-      <c r="B98" s="52"/>
+      <c r="B98" s="49"/>
       <c r="C98" s="29" t="s">
         <v>90</v>
       </c>
@@ -4719,7 +4721,7 @@
     </row>
     <row r="99" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
-      <c r="B99" s="52"/>
+      <c r="B99" s="49"/>
       <c r="C99" s="29" t="s">
         <v>36</v>
       </c>
@@ -4766,7 +4768,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
-      <c r="B100" s="52" t="s">
+      <c r="B100" s="49" t="s">
         <v>83</v>
       </c>
       <c r="C100" s="29" t="s">
@@ -4806,7 +4808,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
-      <c r="B101" s="52"/>
+      <c r="B101" s="49"/>
       <c r="C101" s="29" t="s">
         <v>30</v>
       </c>
@@ -4843,7 +4845,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B102" s="52"/>
+      <c r="B102" s="49"/>
       <c r="C102" s="29" t="s">
         <v>32</v>
       </c>
@@ -4880,7 +4882,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="52"/>
+      <c r="B103" s="49"/>
       <c r="C103" s="29" t="s">
         <v>33</v>
       </c>
@@ -4917,7 +4919,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B104" s="52"/>
+      <c r="B104" s="49"/>
       <c r="C104" s="29" t="s">
         <v>34</v>
       </c>
@@ -4955,7 +4957,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
-      <c r="B105" s="52"/>
+      <c r="B105" s="49"/>
       <c r="C105" s="29" t="s">
         <v>35</v>
       </c>
@@ -4993,7 +4995,7 @@
     </row>
     <row r="106" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
-      <c r="B106" s="52"/>
+      <c r="B106" s="49"/>
       <c r="C106" s="29" t="s">
         <v>90</v>
       </c>
@@ -5031,7 +5033,7 @@
     </row>
     <row r="107" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
-      <c r="B107" s="52"/>
+      <c r="B107" s="49"/>
       <c r="C107" s="29" t="s">
         <v>36</v>
       </c>
@@ -5077,7 +5079,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B108" s="52" t="s">
+      <c r="B108" s="49" t="s">
         <v>82</v>
       </c>
       <c r="C108" s="29" t="s">
@@ -5116,7 +5118,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B109" s="52"/>
+      <c r="B109" s="49"/>
       <c r="C109" s="29" t="s">
         <v>30</v>
       </c>
@@ -5153,7 +5155,7 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B110" s="52"/>
+      <c r="B110" s="49"/>
       <c r="C110" s="29" t="s">
         <v>32</v>
       </c>
@@ -5190,7 +5192,7 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="52"/>
+      <c r="B111" s="49"/>
       <c r="C111" s="29" t="s">
         <v>33</v>
       </c>
@@ -5227,7 +5229,7 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B112" s="52"/>
+      <c r="B112" s="49"/>
       <c r="C112" s="29" t="s">
         <v>34</v>
       </c>
@@ -5264,7 +5266,7 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="52"/>
+      <c r="B113" s="49"/>
       <c r="C113" s="29" t="s">
         <v>35</v>
       </c>
@@ -5302,7 +5304,7 @@
     </row>
     <row r="114" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
-      <c r="B114" s="52"/>
+      <c r="B114" s="49"/>
       <c r="C114" s="29" t="s">
         <v>90</v>
       </c>
@@ -5340,7 +5342,7 @@
     </row>
     <row r="115" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
-      <c r="B115" s="52"/>
+      <c r="B115" s="49"/>
       <c r="C115" s="29" t="s">
         <v>36</v>
       </c>
@@ -5387,13 +5389,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="B100:B107"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B20:B27"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D82:M82"/>
     <mergeCell ref="B40:B49"/>
@@ -5405,6 +5400,13 @@
     <mergeCell ref="D38:H38"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="B82:C83"/>
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B20:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
@@ -5417,7 +5419,7 @@
   <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -5480,7 +5482,7 @@
         <v>22</v>
       </c>
       <c r="Y1" s="44"/>
-      <c r="Z1" s="49" t="s">
+      <c r="Z1" s="50" t="s">
         <v>48</v>
       </c>
       <c r="AA1" s="11"/>
@@ -5609,6 +5611,216 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R2"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="19.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.6640625" style="18" customWidth="1"/>
+    <col min="28" max="36" width="13.33203125" style="18" customWidth="1"/>
+    <col min="37" max="37" width="11" style="10" customWidth="1"/>
+    <col min="38" max="16384" width="11" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+    </row>
+    <row r="2" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="42"/>
+      <c r="U2" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="42"/>
+      <c r="W2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="58"/>
+    </row>
+    <row r="3" spans="1:36" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z3" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:K2"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="L1:R2"/>
     <mergeCell ref="S1:W1"/>
@@ -5622,7 +5834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS3"/>
   <sheetViews>
@@ -6078,6 +6290,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="L1:AE1"/>
+    <mergeCell ref="L2:O2"/>
     <mergeCell ref="AF1:AY1"/>
     <mergeCell ref="AJ2:AO2"/>
     <mergeCell ref="AP2:AX2"/>
@@ -6086,22 +6303,17 @@
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="BJ2:BR2"/>
     <mergeCell ref="AZ2:BC2"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="L1:AE1"/>
-    <mergeCell ref="L2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>

--- a/home/static/excel/base.xlsx
+++ b/home/static/excel/base.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="4" r:id="rId1"/>
     <sheet name="overall_demographic" sheetId="1" r:id="rId2"/>
     <sheet name="by_course_KPI_honor" sheetId="9" r:id="rId3"/>
-    <sheet name="by_course_KPI_audit" sheetId="2" r:id="rId4"/>
+    <sheet name="by_course_KPI_total" sheetId="2" r:id="rId4"/>
     <sheet name="by_course_demographic_honor" sheetId="3" r:id="rId5"/>
-    <sheet name="by_course_demographic_audit" sheetId="7" r:id="rId6"/>
+    <sheet name="by_course_demographic_total" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">by_course_KPI_audit!$A$3:$AJ$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">by_course_KPI_honor!$A$3:$AJ$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">by_course_KPI_total!$A$3:$AJ$3</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -1102,9 +1102,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1112,6 +1109,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1127,10 +1127,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2053,25 +2053,25 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="33" t="s">
         <v>25</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="52" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="33" t="s">
@@ -2117,7 +2117,7 @@
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="33" t="s">
         <v>30</v>
       </c>
@@ -2144,7 +2144,7 @@
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="33" t="s">
         <v>32</v>
       </c>
@@ -2169,7 +2169,7 @@
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="33" t="s">
         <v>33</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="33" t="s">
         <v>34</v>
       </c>
@@ -2219,7 +2219,7 @@
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="33" t="s">
         <v>35</v>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="34" t="s">
         <v>92</v>
       </c>
@@ -2269,7 +2269,7 @@
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="2:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="33" t="s">
         <v>36</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -2323,7 +2323,7 @@
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="33" t="s">
         <v>30</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="33" t="s">
         <v>32</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="33" t="s">
         <v>33</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="33" t="s">
         <v>34</v>
       </c>
@@ -2425,7 +2425,7 @@
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="33" t="s">
         <v>35</v>
       </c>
@@ -2450,7 +2450,7 @@
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="34" t="s">
         <v>92</v>
       </c>
@@ -2475,7 +2475,7 @@
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="2:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="33" t="s">
         <v>36</v>
       </c>
@@ -2503,7 +2503,7 @@
       <c r="J19" s="31"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="52" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="33" t="s">
@@ -2529,7 +2529,7 @@
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="49"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="33" t="s">
         <v>30</v>
       </c>
@@ -2556,7 +2556,7 @@
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="33" t="s">
         <v>32</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="49"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="33" t="s">
         <v>33</v>
       </c>
@@ -2606,7 +2606,7 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="33" t="s">
         <v>34</v>
       </c>
@@ -2631,7 +2631,7 @@
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="33" t="s">
         <v>35</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="34" t="s">
         <v>92</v>
       </c>
@@ -2681,7 +2681,7 @@
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="2:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="33" t="s">
         <v>36</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="J27" s="31"/>
     </row>
     <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="52" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="33" t="s">
@@ -2735,7 +2735,7 @@
       <c r="L28" s="10"/>
     </row>
     <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="49"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="33" t="s">
         <v>30</v>
       </c>
@@ -2762,7 +2762,7 @@
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="49"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="33" t="s">
         <v>32</v>
       </c>
@@ -2787,7 +2787,7 @@
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="49"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="33" t="s">
         <v>33</v>
       </c>
@@ -2812,7 +2812,7 @@
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="49"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="33" t="s">
         <v>34</v>
       </c>
@@ -2837,7 +2837,7 @@
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="49"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="33" t="s">
         <v>35</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="49"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="34" t="s">
         <v>92</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:13" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="49"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="33" t="s">
         <v>36</v>
       </c>
@@ -2940,17 +2940,17 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="51" t="s">
+      <c r="C38" s="49"/>
+      <c r="D38" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
@@ -2958,8 +2958,8 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="33" t="s">
         <v>25</v>
       </c>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="52" t="s">
         <v>80</v>
       </c>
       <c r="C40" s="33" t="s">
@@ -3011,7 +3011,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
-      <c r="B41" s="49"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="33" t="s">
         <v>38</v>
       </c>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
-      <c r="B42" s="49"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="33" t="s">
         <v>39</v>
       </c>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
-      <c r="B43" s="49"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="33" t="s">
         <v>40</v>
       </c>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
-      <c r="B44" s="49"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="33" t="s">
         <v>41</v>
       </c>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
-      <c r="B45" s="49"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="33" t="s">
         <v>42</v>
       </c>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
-      <c r="B46" s="49"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="33" t="s">
         <v>43</v>
       </c>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
-      <c r="B47" s="49"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="33" t="s">
         <v>27</v>
       </c>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
-      <c r="B48" s="49"/>
+      <c r="B48" s="52"/>
       <c r="C48" s="33" t="s">
         <v>44</v>
       </c>
@@ -3226,7 +3226,7 @@
       <c r="L48" s="10"/>
     </row>
     <row r="49" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="49"/>
+      <c r="B49" s="52"/>
       <c r="C49" s="33" t="s">
         <v>36</v>
       </c>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C50" s="33" t="s">
@@ -3282,7 +3282,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
-      <c r="B51" s="49"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="33" t="s">
         <v>38</v>
       </c>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
-      <c r="B52" s="49"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="33" t="s">
         <v>39</v>
       </c>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
-      <c r="B53" s="49"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="33" t="s">
         <v>40</v>
       </c>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
-      <c r="B54" s="49"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="33" t="s">
         <v>41</v>
       </c>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
-      <c r="B55" s="49"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="33" t="s">
         <v>42</v>
       </c>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
-      <c r="B56" s="49"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="33" t="s">
         <v>43</v>
       </c>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
-      <c r="B57" s="49"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="33" t="s">
         <v>27</v>
       </c>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
-      <c r="B58" s="49"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="33" t="s">
         <v>44</v>
       </c>
@@ -3497,7 +3497,7 @@
       <c r="L58" s="10"/>
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="49"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="33" t="s">
         <v>36</v>
       </c>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="52" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="33" t="s">
@@ -3553,7 +3553,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
-      <c r="B61" s="49"/>
+      <c r="B61" s="52"/>
       <c r="C61" s="33" t="s">
         <v>38</v>
       </c>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
-      <c r="B62" s="49"/>
+      <c r="B62" s="52"/>
       <c r="C62" s="33" t="s">
         <v>39</v>
       </c>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
-      <c r="B63" s="49"/>
+      <c r="B63" s="52"/>
       <c r="C63" s="33" t="s">
         <v>40</v>
       </c>
@@ -3634,7 +3634,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
-      <c r="B64" s="49"/>
+      <c r="B64" s="52"/>
       <c r="C64" s="33" t="s">
         <v>41</v>
       </c>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
-      <c r="B65" s="49"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="33" t="s">
         <v>42</v>
       </c>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
-      <c r="B66" s="49"/>
+      <c r="B66" s="52"/>
       <c r="C66" s="33" t="s">
         <v>43</v>
       </c>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
-      <c r="B67" s="49"/>
+      <c r="B67" s="52"/>
       <c r="C67" s="33" t="s">
         <v>27</v>
       </c>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
-      <c r="B68" s="49"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="33" t="s">
         <v>44</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="L68" s="10"/>
     </row>
     <row r="69" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="49"/>
+      <c r="B69" s="52"/>
       <c r="C69" s="33" t="s">
         <v>36</v>
       </c>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
-      <c r="B70" s="49" t="s">
+      <c r="B70" s="52" t="s">
         <v>82</v>
       </c>
       <c r="C70" s="33" t="s">
@@ -3824,7 +3824,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
-      <c r="B71" s="49"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="33" t="s">
         <v>38</v>
       </c>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
-      <c r="B72" s="49"/>
+      <c r="B72" s="52"/>
       <c r="C72" s="33" t="s">
         <v>39</v>
       </c>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
-      <c r="B73" s="49"/>
+      <c r="B73" s="52"/>
       <c r="C73" s="33" t="s">
         <v>40</v>
       </c>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
-      <c r="B74" s="49"/>
+      <c r="B74" s="52"/>
       <c r="C74" s="33" t="s">
         <v>41</v>
       </c>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
-      <c r="B75" s="49"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="33" t="s">
         <v>42</v>
       </c>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
-      <c r="B76" s="49"/>
+      <c r="B76" s="52"/>
       <c r="C76" s="33" t="s">
         <v>43</v>
       </c>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
-      <c r="B77" s="49"/>
+      <c r="B77" s="52"/>
       <c r="C77" s="33" t="s">
         <v>27</v>
       </c>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
-      <c r="B78" s="49"/>
+      <c r="B78" s="52"/>
       <c r="C78" s="33" t="s">
         <v>44</v>
       </c>
@@ -4039,7 +4039,7 @@
       <c r="L78" s="10"/>
     </row>
     <row r="79" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="49"/>
+      <c r="B79" s="52"/>
       <c r="C79" s="33" t="s">
         <v>36</v>
       </c>
@@ -4090,27 +4090,27 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
-      <c r="B82" s="51" t="s">
+      <c r="B82" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="51"/>
-      <c r="D82" s="51" t="s">
+      <c r="C82" s="50"/>
+      <c r="D82" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="52"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="52"/>
-      <c r="J82" s="52"/>
-      <c r="K82" s="52"/>
-      <c r="L82" s="52"/>
-      <c r="M82" s="52"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="51"/>
+      <c r="M82" s="51"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="51"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="50"/>
       <c r="D83" s="33" t="s">
         <v>37</v>
       </c>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
-      <c r="B84" s="49" t="s">
+      <c r="B84" s="52" t="s">
         <v>80</v>
       </c>
       <c r="C84" s="29" t="s">
@@ -4184,7 +4184,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
-      <c r="B85" s="49"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="29" t="s">
         <v>30</v>
       </c>
@@ -4221,7 +4221,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="49"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="29" t="s">
         <v>32</v>
       </c>
@@ -4258,7 +4258,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="49"/>
+      <c r="B87" s="52"/>
       <c r="C87" s="29" t="s">
         <v>33</v>
       </c>
@@ -4295,7 +4295,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="49"/>
+      <c r="B88" s="52"/>
       <c r="C88" s="29" t="s">
         <v>34</v>
       </c>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
-      <c r="B89" s="49"/>
+      <c r="B89" s="52"/>
       <c r="C89" s="29" t="s">
         <v>35</v>
       </c>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="90" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
-      <c r="B90" s="49"/>
+      <c r="B90" s="52"/>
       <c r="C90" s="29" t="s">
         <v>90</v>
       </c>
@@ -4409,7 +4409,7 @@
     </row>
     <row r="91" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
-      <c r="B91" s="49"/>
+      <c r="B91" s="52"/>
       <c r="C91" s="29" t="s">
         <v>36</v>
       </c>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
-      <c r="B92" s="49" t="s">
+      <c r="B92" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C92" s="29" t="s">
@@ -4496,7 +4496,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
-      <c r="B93" s="49"/>
+      <c r="B93" s="52"/>
       <c r="C93" s="29" t="s">
         <v>30</v>
       </c>
@@ -4533,7 +4533,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="49"/>
+      <c r="B94" s="52"/>
       <c r="C94" s="29" t="s">
         <v>32</v>
       </c>
@@ -4570,7 +4570,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="49"/>
+      <c r="B95" s="52"/>
       <c r="C95" s="29" t="s">
         <v>33</v>
       </c>
@@ -4607,7 +4607,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="49"/>
+      <c r="B96" s="52"/>
       <c r="C96" s="29" t="s">
         <v>34</v>
       </c>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
-      <c r="B97" s="49"/>
+      <c r="B97" s="52"/>
       <c r="C97" s="29" t="s">
         <v>35</v>
       </c>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="98" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
-      <c r="B98" s="49"/>
+      <c r="B98" s="52"/>
       <c r="C98" s="29" t="s">
         <v>90</v>
       </c>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="99" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
-      <c r="B99" s="49"/>
+      <c r="B99" s="52"/>
       <c r="C99" s="29" t="s">
         <v>36</v>
       </c>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
-      <c r="B100" s="49" t="s">
+      <c r="B100" s="52" t="s">
         <v>83</v>
       </c>
       <c r="C100" s="29" t="s">
@@ -4808,7 +4808,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
-      <c r="B101" s="49"/>
+      <c r="B101" s="52"/>
       <c r="C101" s="29" t="s">
         <v>30</v>
       </c>
@@ -4845,7 +4845,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B102" s="49"/>
+      <c r="B102" s="52"/>
       <c r="C102" s="29" t="s">
         <v>32</v>
       </c>
@@ -4882,7 +4882,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="49"/>
+      <c r="B103" s="52"/>
       <c r="C103" s="29" t="s">
         <v>33</v>
       </c>
@@ -4919,7 +4919,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B104" s="49"/>
+      <c r="B104" s="52"/>
       <c r="C104" s="29" t="s">
         <v>34</v>
       </c>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
-      <c r="B105" s="49"/>
+      <c r="B105" s="52"/>
       <c r="C105" s="29" t="s">
         <v>35</v>
       </c>
@@ -4995,7 +4995,7 @@
     </row>
     <row r="106" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
-      <c r="B106" s="49"/>
+      <c r="B106" s="52"/>
       <c r="C106" s="29" t="s">
         <v>90</v>
       </c>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="107" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
-      <c r="B107" s="49"/>
+      <c r="B107" s="52"/>
       <c r="C107" s="29" t="s">
         <v>36</v>
       </c>
@@ -5079,7 +5079,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B108" s="49" t="s">
+      <c r="B108" s="52" t="s">
         <v>82</v>
       </c>
       <c r="C108" s="29" t="s">
@@ -5118,7 +5118,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B109" s="49"/>
+      <c r="B109" s="52"/>
       <c r="C109" s="29" t="s">
         <v>30</v>
       </c>
@@ -5155,7 +5155,7 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B110" s="49"/>
+      <c r="B110" s="52"/>
       <c r="C110" s="29" t="s">
         <v>32</v>
       </c>
@@ -5192,7 +5192,7 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="49"/>
+      <c r="B111" s="52"/>
       <c r="C111" s="29" t="s">
         <v>33</v>
       </c>
@@ -5229,7 +5229,7 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B112" s="49"/>
+      <c r="B112" s="52"/>
       <c r="C112" s="29" t="s">
         <v>34</v>
       </c>
@@ -5266,7 +5266,7 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="49"/>
+      <c r="B113" s="52"/>
       <c r="C113" s="29" t="s">
         <v>35</v>
       </c>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="114" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
-      <c r="B114" s="49"/>
+      <c r="B114" s="52"/>
       <c r="C114" s="29" t="s">
         <v>90</v>
       </c>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="115" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
-      <c r="B115" s="49"/>
+      <c r="B115" s="52"/>
       <c r="C115" s="29" t="s">
         <v>36</v>
       </c>
@@ -5389,6 +5389,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="B20:B27"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D82:M82"/>
     <mergeCell ref="B40:B49"/>
@@ -5400,13 +5407,6 @@
     <mergeCell ref="D38:H38"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="B82:C83"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="B100:B107"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="B20:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
@@ -5465,24 +5465,24 @@
       <c r="L1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
       <c r="R1" s="44"/>
       <c r="S1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="42"/>
       <c r="X1" s="39" t="s">
         <v>22</v>
       </c>
       <c r="Y1" s="44"/>
-      <c r="Z1" s="50" t="s">
+      <c r="Z1" s="49" t="s">
         <v>48</v>
       </c>
       <c r="AA1" s="11"/>
@@ -5509,11 +5509,11 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
       <c r="L2" s="45"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
       <c r="R2" s="46"/>
       <c r="S2" s="39" t="s">
         <v>4</v>
@@ -5528,7 +5528,7 @@
       </c>
       <c r="X2" s="45"/>
       <c r="Y2" s="46"/>
-      <c r="Z2" s="58"/>
+      <c r="Z2" s="61"/>
     </row>
     <row r="3" spans="1:36" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5628,7 +5628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -5675,24 +5675,24 @@
       <c r="L1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
       <c r="R1" s="44"/>
       <c r="S1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="42"/>
       <c r="X1" s="39" t="s">
         <v>22</v>
       </c>
       <c r="Y1" s="44"/>
-      <c r="Z1" s="50" t="s">
+      <c r="Z1" s="49" t="s">
         <v>48</v>
       </c>
       <c r="AA1" s="11"/>
@@ -5719,11 +5719,11 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
       <c r="L2" s="45"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
       <c r="R2" s="46"/>
       <c r="S2" s="39" t="s">
         <v>4</v>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="X2" s="45"/>
       <c r="Y2" s="46"/>
-      <c r="Z2" s="58"/>
+      <c r="Z2" s="61"/>
     </row>
     <row r="3" spans="1:36" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -6290,11 +6290,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="V2:AD2"/>
-    <mergeCell ref="L1:AE1"/>
-    <mergeCell ref="L2:O2"/>
     <mergeCell ref="AF1:AY1"/>
     <mergeCell ref="AJ2:AO2"/>
     <mergeCell ref="AP2:AX2"/>
@@ -6303,6 +6298,11 @@
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="BJ2:BR2"/>
     <mergeCell ref="AZ2:BC2"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="V2:AD2"/>
+    <mergeCell ref="L1:AE1"/>
+    <mergeCell ref="L2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6313,7 +6313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
